--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\SIMF\moduls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CEB3A5-A2B4-403C-A547-8B5A726BFECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55B94F1-92A8-49B8-9F64-D9328B051C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,23 +18,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$430</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="695">
   <si>
     <t>1С</t>
   </si>
@@ -2101,6 +2095,24 @@
   </si>
   <si>
     <t>7245 ВЕТЧ.ФИЛЕЙНАЯ ПМ п/о 0,4кг 8шт ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>7147 САЛЬЧИЧОН Останкино с/к в/у 1/220 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>САЛЬЧИЧОН Останкино с/к в/у 1/220 8шт.</t>
+  </si>
+  <si>
+    <t>7225 ТОСКАНО ПРЕМИУМ Останкино с/к в/у 1/180  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ТОСКАНО ПРЕМИУМ Останкино с/к в/у 1/180</t>
+  </si>
+  <si>
+    <t>7227 САЛЯМИ ФИНСКАЯ Папа может с/к в/у 1/180  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>САЛЯМИ ФИНСКАЯ Папа может с/к в/у 1/180</t>
   </si>
 </sst>
 </file>
@@ -2164,12 +2176,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2455,11 +2466,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F432"/>
+  <dimension ref="A1:F435"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3289,7 +3300,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B74" s="3">
@@ -3300,7 +3311,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B75" s="3">
@@ -3386,7 +3397,7 @@
       <c r="A82" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82" s="4">
         <v>1001303106773</v>
       </c>
       <c r="C82" t="s">
@@ -3397,7 +3408,7 @@
       <c r="A83" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B83" s="4">
         <v>1001303106773</v>
       </c>
       <c r="C83" t="s">
@@ -7316,6 +7327,39 @@
       </c>
       <c r="C432" t="s">
         <v>687</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B433" s="3">
+        <v>1001063237147</v>
+      </c>
+      <c r="C433" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B434" s="3">
+        <v>1001066537225</v>
+      </c>
+      <c r="C434" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B435" s="3">
+        <v>1001063097227</v>
+      </c>
+      <c r="C435" t="s">
+        <v>694</v>
       </c>
     </row>
   </sheetData>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\moduls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55B94F1-92A8-49B8-9F64-D9328B051C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169008BB-36C3-4929-A8EC-27EB03C7BD78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,17 +18,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$430</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="697">
   <si>
     <t>1С</t>
   </si>
@@ -2113,6 +2119,12 @@
   </si>
   <si>
     <t>САЛЯМИ ФИНСКАЯ Папа может с/к в/у 1/180</t>
+  </si>
+  <si>
+    <t>7226 ЧОРИЗО ПРЕМИУМ Останкино с/к в/у 1/180  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ЧОРИЗО ПРЕМИУМ Останкино с/к в/у 1/180</t>
   </si>
 </sst>
 </file>
@@ -2466,11 +2478,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F435"/>
+  <dimension ref="A1:F436"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7362,6 +7374,17 @@
         <v>694</v>
       </c>
     </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B436" s="3">
+        <v>1001066527226</v>
+      </c>
+      <c r="C436" t="s">
+        <v>696</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C430" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169008BB-36C3-4929-A8EC-27EB03C7BD78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83BC7F9-D7C6-4243-8A17-5FB5DE837796}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="699">
   <si>
     <t>1С</t>
   </si>
@@ -2125,6 +2125,12 @@
   </si>
   <si>
     <t>ЧОРИЗО ПРЕМИУМ Останкино с/к в/у 1/180</t>
+  </si>
+  <si>
+    <t>7244 ФИЛЕЙНЫЕ Папа может сос ц/о мгс 0,72*4 ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ФИЛЕЙНЫЕ Папа может сос ц/о мгс 0.72*4</t>
   </si>
 </sst>
 </file>
@@ -2478,11 +2484,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F436"/>
+  <dimension ref="A1:F437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7385,6 +7391,17 @@
         <v>696</v>
       </c>
     </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B437" s="3">
+        <v>1001022557244</v>
+      </c>
+      <c r="C437" t="s">
+        <v>698</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C430" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\moduls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83BC7F9-D7C6-4243-8A17-5FB5DE837796}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE33C6E-1E0D-417B-AC79-B5BE4997E6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,18 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="703">
   <si>
     <t>1С</t>
   </si>
@@ -2131,6 +2125,18 @@
   </si>
   <si>
     <t>ФИЛЕЙНЫЕ Папа может сос ц/о мгс 0.72*4</t>
+  </si>
+  <si>
+    <t>7229 САЛЬЧИЧОН Останкино с/к в/у 1/180 ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>САЛЬЧИЧОН Останкино с/к в/у 1/180</t>
+  </si>
+  <si>
+    <t>7250 ТОМ ЯМ Папа Может сос п/о мгс 0,33кг 8 шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ТОМ ЯМ Папа Может сос п/о мгс 0.33кг 8шт</t>
   </si>
 </sst>
 </file>
@@ -2484,11 +2490,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F437"/>
+  <dimension ref="A1:F439"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7402,6 +7408,28 @@
         <v>698</v>
       </c>
     </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B438" s="3">
+        <v>1001063237229</v>
+      </c>
+      <c r="C438" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B439" s="3">
+        <v>1001026617250</v>
+      </c>
+      <c r="C439" t="s">
+        <v>702</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C430" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\moduls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE33C6E-1E0D-417B-AC79-B5BE4997E6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CA6B5A-5C10-4BCC-B38E-320382EE68A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="707">
   <si>
     <t>1С</t>
   </si>
@@ -2137,6 +2137,18 @@
   </si>
   <si>
     <t>ТОМ ЯМ Папа Может сос п/о мгс 0.33кг 8шт</t>
+  </si>
+  <si>
+    <t>7276 СЛИВОЧНЫЕ ПМ сос п/о мгс 0,3кг 7шт ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЛИВОЧНЫЕ ПМ сос п/о мгс 0.3кг 7шт.</t>
+  </si>
+  <si>
+    <t>7284 ДЛЯ ДЕТЕЙ сос п/о мгс 0,33кг 6шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ДЛЯ ДЕТЕЙ сос п/о мгс 0.33кг 6шт.</t>
   </si>
 </sst>
 </file>
@@ -2490,7 +2502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F439"/>
+  <dimension ref="A1:F441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7430,6 +7442,28 @@
         <v>702</v>
       </c>
     </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B440" s="3">
+        <v>1001022467276</v>
+      </c>
+      <c r="C440" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B441" s="3">
+        <v>1001025767284</v>
+      </c>
+      <c r="C441" t="s">
+        <v>706</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C430" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CA6B5A-5C10-4BCC-B38E-320382EE68A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E0361E-FAAE-49C1-8F62-32D2F12CE80F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="709">
   <si>
     <t>1С</t>
   </si>
@@ -2149,6 +2149,12 @@
   </si>
   <si>
     <t>ДЛЯ ДЕТЕЙ сос п/о мгс 0.33кг 6шт.</t>
+  </si>
+  <si>
+    <t>7150 САЛЬЧИЧОН Папа может с/к в/у ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>САЛЬЧИЧОН Папа может с/к в/у</t>
   </si>
 </sst>
 </file>
@@ -2502,11 +2508,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F441"/>
+  <dimension ref="A1:F442"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7464,6 +7470,17 @@
         <v>706</v>
       </c>
     </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B442" s="3">
+        <v>1001063237150</v>
+      </c>
+      <c r="C442" t="s">
+        <v>708</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C430" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E0361E-FAAE-49C1-8F62-32D2F12CE80F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BF7866-72EE-4111-9078-B73D75085E3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="711">
   <si>
     <t>1С</t>
   </si>
@@ -2155,6 +2155,12 @@
   </si>
   <si>
     <t>САЛЬЧИЧОН Папа может с/к в/у</t>
+  </si>
+  <si>
+    <t>7271 МЯСНЫЕ С ГОВЯДИНОЙ ПМ сос п/о мгс 1.5*4 ВЕС  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МЯСНЫЕ С ГОВЯДИНОЙ ПМ сос п/о мгс 1.5*4</t>
   </si>
 </sst>
 </file>
@@ -2508,11 +2514,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F442"/>
+  <dimension ref="A1:F443"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7481,6 +7487,17 @@
         <v>708</v>
       </c>
     </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B443" s="3">
+        <v>1001025507271</v>
+      </c>
+      <c r="C443" t="s">
+        <v>710</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C430" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BF7866-72EE-4111-9078-B73D75085E3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAED80B-7D47-494F-B746-AB3094C9F9BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,12 +23,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="713">
   <si>
     <t>1С</t>
   </si>
@@ -2161,6 +2167,12 @@
   </si>
   <si>
     <t>МЯСНЫЕ С ГОВЯДИНОЙ ПМ сос п/о мгс 1.5*4</t>
+  </si>
+  <si>
+    <t>7332 БОЯРСКАЯ ПМ п/к в/у 0.28кг_СНГ  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>БОЯРСКАЯ ПМ п/к в/у 0.28кг_СНГ</t>
   </si>
 </sst>
 </file>
@@ -2514,11 +2526,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F443"/>
+  <dimension ref="A1:F444"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7498,6 +7510,17 @@
         <v>710</v>
       </c>
     </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B444" s="3">
+        <v>1001301777332</v>
+      </c>
+      <c r="C444" t="s">
+        <v>712</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C430" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAED80B-7D47-494F-B746-AB3094C9F9BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1F7F64-37E4-4CCE-B42D-5F51FD50EED7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="715">
   <si>
     <t>1С</t>
   </si>
@@ -2173,6 +2173,12 @@
   </si>
   <si>
     <t>БОЯРСКАЯ ПМ п/к в/у 0.28кг_СНГ</t>
+  </si>
+  <si>
+    <t>7157 СЕРВЕЛАТ ЗЕРНИСНЫЙ ПМ в/к в/у_50с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у_50с</t>
   </si>
 </sst>
 </file>
@@ -2526,11 +2532,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F444"/>
+  <dimension ref="A1:F445"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7521,6 +7527,17 @@
         <v>712</v>
       </c>
     </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B445" s="3">
+        <v>1001300387157</v>
+      </c>
+      <c r="C445" t="s">
+        <v>714</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C430" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1F7F64-37E4-4CCE-B42D-5F51FD50EED7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC3874A-1130-4A72-9B27-AB675E9AA3E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="717">
   <si>
     <t>1С</t>
   </si>
@@ -2179,6 +2179,12 @@
   </si>
   <si>
     <t>СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у_50с</t>
+  </si>
+  <si>
+    <t>7343 СЕЙЧАС СЕЗОН ПМ вар п/о 0,4кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЕЙЧАС СЕЗОН ПМ вар п/о 0.4кг</t>
   </si>
 </sst>
 </file>
@@ -2532,11 +2538,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F445"/>
+  <dimension ref="A1:F446"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7538,6 +7544,17 @@
         <v>714</v>
       </c>
     </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B446" s="3">
+        <v>1001016747343</v>
+      </c>
+      <c r="C446" t="s">
+        <v>716</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C430" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC3874A-1130-4A72-9B27-AB675E9AA3E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76793B5-3351-4FFB-B7DA-40E31CB2F3D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="719">
   <si>
     <t>1С</t>
   </si>
@@ -2185,6 +2185,12 @@
   </si>
   <si>
     <t>СЕЙЧАС СЕЗОН ПМ вар п/о 0.4кг</t>
+  </si>
+  <si>
+    <t>3986 Ароматная с/к в/у 1/250 ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>АРОМАТНАЯ с/к в/у 1/250 8шт.</t>
   </si>
 </sst>
 </file>
@@ -2538,11 +2544,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F446"/>
+  <dimension ref="A1:F447"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7555,6 +7561,17 @@
         <v>716</v>
       </c>
     </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B447" s="3">
+        <v>1001061973986</v>
+      </c>
+      <c r="C447" t="s">
+        <v>718</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C430" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76793B5-3351-4FFB-B7DA-40E31CB2F3D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F4745A-2EBE-4571-9F45-2B5F741EB1F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="721">
   <si>
     <t>1С</t>
   </si>
@@ -2191,6 +2191,12 @@
   </si>
   <si>
     <t>АРОМАТНАЯ с/к в/у 1/250 8шт.</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0.28кг_СНГ</t>
+  </si>
+  <si>
+    <t>7333 СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0.28кг_СНГ  ОСТАНКИНО</t>
   </si>
 </sst>
 </file>
@@ -2544,11 +2550,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F447"/>
+  <dimension ref="A1:F448"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7572,6 +7578,17 @@
         <v>718</v>
       </c>
     </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B448" s="3">
+        <v>1001303987333</v>
+      </c>
+      <c r="C448" t="s">
+        <v>719</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C430" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F4745A-2EBE-4571-9F45-2B5F741EB1F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0226B1-8B34-47E7-8F37-50287976CFC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$430</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$449</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="722">
   <si>
     <t>1С</t>
   </si>
@@ -2197,6 +2197,9 @@
   </si>
   <si>
     <t>7333 СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0.28кг_СНГ  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6220 ГОВЯЖЬЯ Папа может вар п/о  ОСТАНКИНО</t>
   </si>
 </sst>
 </file>
@@ -2550,11 +2553,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F448"/>
+  <dimension ref="A1:F449"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4444,7 +4447,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>201</v>
+        <v>721</v>
       </c>
       <c r="B167" s="3">
         <v>1001012426220</v>
@@ -4455,227 +4458,227 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B168" s="3">
-        <v>1001022466236</v>
+        <v>1001012426220</v>
       </c>
       <c r="C168" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B169" s="3">
-        <v>1001021966602</v>
+        <v>1001022466236</v>
       </c>
       <c r="C169" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B170" s="3">
-        <v>1001022296656</v>
+        <v>1001021966602</v>
       </c>
       <c r="C170" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B171" s="3">
-        <v>1001301876697</v>
+        <v>1001022296656</v>
       </c>
       <c r="C171" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B172" s="3">
-        <v>1001022246713</v>
+        <v>1001301876697</v>
       </c>
       <c r="C172" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B173" s="3">
-        <v>1001020846751</v>
+        <v>1001022246713</v>
       </c>
       <c r="C173" t="s">
-        <v>91</v>
+        <v>213</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B174" s="3">
-        <v>1001022725819</v>
+        <v>1001020846751</v>
       </c>
       <c r="C174" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B175" s="3">
-        <v>1001012825337</v>
+        <v>1001022725819</v>
       </c>
       <c r="C175" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B176" s="3">
-        <v>1001012815336</v>
+        <v>1001012825337</v>
       </c>
       <c r="C176" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B177" s="3">
-        <v>1001234146448</v>
+        <v>1001012815336</v>
       </c>
       <c r="C177" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B178" s="3">
-        <v>1001022725819</v>
+        <v>1001234146448</v>
       </c>
       <c r="C178" t="s">
-        <v>218</v>
+        <v>68</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B179" s="3">
-        <v>1001092676027</v>
+        <v>1001022725819</v>
       </c>
       <c r="C179" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B180" s="3">
-        <v>1001301876213</v>
+        <v>1001092676027</v>
       </c>
       <c r="C180" t="s">
-        <v>82</v>
+        <v>224</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B181" s="3">
-        <v>1001035026308</v>
+        <v>1001301876213</v>
       </c>
       <c r="C181" t="s">
-        <v>410</v>
+        <v>82</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B182" s="3">
-        <v>1001234146448</v>
+        <v>1001035026308</v>
       </c>
       <c r="C182" t="s">
-        <v>68</v>
+        <v>410</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B183" s="3">
-        <v>1001201976454</v>
+        <v>1001234146448</v>
       </c>
       <c r="C183" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B184" s="3">
-        <v>1001025176475</v>
+        <v>1001201976454</v>
       </c>
       <c r="C184" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B185" s="3">
-        <v>1001012456498</v>
+        <v>1001025176475</v>
       </c>
       <c r="C185" t="s">
-        <v>234</v>
+        <v>75</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B186" s="3">
-        <v>1001010036596</v>
+        <v>1001012456498</v>
       </c>
       <c r="C186" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>568</v>
+        <v>235</v>
       </c>
       <c r="B187" s="3">
-        <v>1001033856608</v>
+        <v>1001010036596</v>
       </c>
       <c r="C187" t="s">
-        <v>560</v>
+        <v>236</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="B188" s="3">
         <v>1001033856608</v>
@@ -4686,18 +4689,18 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="B189" s="3">
-        <v>1001033856609</v>
+        <v>1001033856608</v>
       </c>
       <c r="C189" t="s">
-        <v>238</v>
+        <v>560</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>237</v>
+        <v>569</v>
       </c>
       <c r="B190" s="3">
         <v>1001033856609</v>
@@ -4708,337 +4711,337 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B191" s="3">
-        <v>1001093345495</v>
+        <v>1001033856609</v>
       </c>
       <c r="C191" t="s">
-        <v>445</v>
+        <v>238</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B192" s="3">
-        <v>6550</v>
+        <v>1001093345495</v>
       </c>
       <c r="C192" t="s">
-        <v>243</v>
+        <v>445</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B193" s="3">
-        <v>1001010113248</v>
+        <v>6550</v>
       </c>
       <c r="C193" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>418</v>
+        <v>244</v>
       </c>
       <c r="B194" s="3">
-        <v>1001063926780</v>
+        <v>1001010113248</v>
       </c>
       <c r="C194" t="s">
-        <v>419</v>
+        <v>245</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>246</v>
+        <v>418</v>
       </c>
       <c r="B195" s="3">
-        <v>6586</v>
+        <v>1001063926780</v>
       </c>
       <c r="C195" t="s">
-        <v>247</v>
+        <v>419</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B196" s="3">
-        <v>1001303636467</v>
+        <v>6586</v>
       </c>
       <c r="C196" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B197" s="3">
-        <v>1001304496701</v>
+        <v>1001303636467</v>
       </c>
       <c r="C197" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B198" s="3">
-        <v>6144</v>
+        <v>1001304496701</v>
       </c>
       <c r="C198" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B199" s="3">
-        <v>1001022725819</v>
+        <v>6144</v>
       </c>
       <c r="C199" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B200" s="3">
-        <v>1001022373812</v>
+        <v>1001022725819</v>
       </c>
       <c r="C200" t="s">
-        <v>3</v>
+        <v>218</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B201" s="3">
-        <v>1001024906062</v>
+        <v>1001022373812</v>
       </c>
       <c r="C201" t="s">
-        <v>261</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B202" s="3">
-        <v>1001300386683</v>
+        <v>1001024906062</v>
       </c>
       <c r="C202" t="s">
-        <v>77</v>
+        <v>261</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B203" s="3">
-        <v>1001303986689</v>
+        <v>1001300386683</v>
       </c>
       <c r="C203" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B204" s="3">
-        <v>1001303056692</v>
+        <v>1001303986689</v>
       </c>
       <c r="C204" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B205" s="3">
-        <v>1001301876697</v>
+        <v>1001303056692</v>
       </c>
       <c r="C205" t="s">
-        <v>211</v>
+        <v>61</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B206" s="3">
-        <v>1001302276666</v>
+        <v>1001301876697</v>
       </c>
       <c r="C206" t="s">
-        <v>62</v>
+        <v>211</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B207" s="3">
-        <v>1001012634574</v>
+        <v>1001302276666</v>
       </c>
       <c r="C207" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B208" s="3">
-        <v>1001092485452</v>
+        <v>1001012634574</v>
       </c>
       <c r="C208" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B209" s="3">
-        <v>1001020966144</v>
+        <v>1001092485452</v>
       </c>
       <c r="C209" t="s">
-        <v>150</v>
+        <v>270</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B210" s="3">
-        <v>6586</v>
+        <v>1001020966144</v>
       </c>
       <c r="C210" t="s">
-        <v>247</v>
+        <v>150</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B211" s="3">
-        <v>1001304496701</v>
+        <v>6586</v>
       </c>
       <c r="C211" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B212" s="3">
-        <v>1001063655015</v>
+        <v>1001304496701</v>
       </c>
       <c r="C212" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B213" s="3">
-        <v>1001060763287</v>
+        <v>1001063655015</v>
       </c>
       <c r="C213" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B214" s="3">
-        <v>1001225416228</v>
+        <v>1001060763287</v>
       </c>
       <c r="C214" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B215" s="3">
-        <v>1001032736550</v>
+        <v>1001225416228</v>
       </c>
       <c r="C215" t="s">
-        <v>243</v>
+        <v>166</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B216" s="3">
-        <v>6758</v>
+        <v>1001032736550</v>
       </c>
       <c r="C216" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B217" s="3">
-        <v>1001020965976</v>
+        <v>6758</v>
       </c>
       <c r="C217" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B218" s="3">
-        <v>1001215576586</v>
+        <v>1001020965976</v>
       </c>
       <c r="C218" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B219" s="3">
-        <v>1001094896026</v>
+        <v>1001215576586</v>
       </c>
       <c r="C219" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>497</v>
+        <v>289</v>
       </c>
       <c r="B220" s="3">
-        <v>1001215576586</v>
+        <v>1001094896026</v>
       </c>
       <c r="C220" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>291</v>
+        <v>497</v>
       </c>
       <c r="B221" s="3">
         <v>1001215576586</v>
@@ -5049,87 +5052,84 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B222" s="3">
-        <v>1001092436470</v>
+        <v>1001215576586</v>
       </c>
       <c r="C222" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B223" s="3">
-        <v>1001203146555</v>
+        <v>1001092436470</v>
       </c>
       <c r="C223" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B224" s="3">
-        <v>1001014765992</v>
+        <v>1001203146555</v>
       </c>
       <c r="C224" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B225" s="3">
         <v>1001014765992</v>
       </c>
       <c r="C225" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B226" s="3">
-        <v>1001014765993</v>
+        <v>1001014765992</v>
       </c>
       <c r="C226" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B227" s="3">
-        <v>1001025166776</v>
+        <v>1001014765993</v>
       </c>
       <c r="C227" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B228" s="3">
-        <v>1001025507077</v>
+        <v>1001025166776</v>
       </c>
       <c r="C228" t="s">
-        <v>601</v>
-      </c>
-      <c r="E228" t="s">
-        <v>622</v>
+        <v>304</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="B229" s="3">
         <v>1001025507077</v>
@@ -5143,7 +5143,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>640</v>
+        <v>305</v>
       </c>
       <c r="B230" s="3">
         <v>1001025507077</v>
@@ -5151,10 +5151,13 @@
       <c r="C230" t="s">
         <v>601</v>
       </c>
+      <c r="E230" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>619</v>
+        <v>640</v>
       </c>
       <c r="B231" s="3">
         <v>1001025507077</v>
@@ -5165,7 +5168,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>600</v>
+        <v>619</v>
       </c>
       <c r="B232" s="3">
         <v>1001025507077</v>
@@ -5176,18 +5179,18 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>327</v>
+        <v>600</v>
       </c>
       <c r="B233" s="3">
-        <v>1001025546822</v>
+        <v>1001025507077</v>
       </c>
       <c r="C233" t="s">
-        <v>307</v>
+        <v>601</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B234" s="3">
         <v>1001025546822</v>
@@ -5198,62 +5201,62 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B235" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C235" t="s">
-        <v>552</v>
+        <v>307</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="B236" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C236" t="s">
-        <v>307</v>
+        <v>552</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B237" s="3">
-        <v>1001024976616</v>
+        <v>1001025546822</v>
       </c>
       <c r="C237" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B238" s="3">
-        <v>1001010855247</v>
+        <v>1001024976616</v>
       </c>
       <c r="C238" t="s">
-        <v>23</v>
+        <v>310</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>389</v>
+        <v>312</v>
       </c>
       <c r="B239" s="3">
-        <v>1001223296919</v>
+        <v>1001010855247</v>
       </c>
       <c r="C239" t="s">
-        <v>392</v>
+        <v>23</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>69</v>
+        <v>389</v>
       </c>
       <c r="B240" s="3">
         <v>1001223296919</v>
@@ -5264,7 +5267,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>230</v>
+        <v>69</v>
       </c>
       <c r="B241" s="3">
         <v>1001223296919</v>
@@ -5275,29 +5278,29 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>460</v>
+        <v>230</v>
       </c>
       <c r="B242" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C242" t="s">
-        <v>476</v>
+        <v>392</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="B243" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C243" t="s">
-        <v>392</v>
+        <v>476</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>313</v>
+        <v>482</v>
       </c>
       <c r="B244" s="3">
         <v>1001223296919</v>
@@ -5308,62 +5311,62 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B245" s="3">
-        <v>1001014765993</v>
+        <v>1001223296919</v>
       </c>
       <c r="C245" t="s">
-        <v>301</v>
+        <v>392</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B246" s="3">
-        <v>1001025166776</v>
+        <v>1001014765993</v>
       </c>
       <c r="C246" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B247" s="3">
-        <v>1001025526778</v>
+        <v>1001025166776</v>
       </c>
       <c r="C247" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B248" s="3">
-        <v>1001304236685</v>
+        <v>1001025526778</v>
       </c>
       <c r="C248" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="B249" s="3">
-        <v>1001015496769</v>
+        <v>1001304236685</v>
       </c>
       <c r="C249" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="B250" s="3">
         <v>1001015496769</v>
@@ -5374,84 +5377,84 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B251" s="3">
-        <v>1001014766798</v>
+        <v>1001015496769</v>
       </c>
       <c r="C251" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B252" s="3">
-        <v>1001015026797</v>
+        <v>1001014766798</v>
       </c>
       <c r="C252" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B253" s="3">
-        <v>1001205386222</v>
+        <v>1001015026797</v>
       </c>
       <c r="C253" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B254" s="3">
-        <v>1001092675224</v>
+        <v>1001205386222</v>
       </c>
       <c r="C254" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B255" s="3">
-        <v>1001225406223</v>
+        <v>1001092675224</v>
       </c>
       <c r="C255" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B256" s="3">
-        <v>1001300366790</v>
+        <v>1001225406223</v>
       </c>
       <c r="C256" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>478</v>
+        <v>352</v>
       </c>
       <c r="B257" s="3">
-        <v>1001304096792</v>
+        <v>1001300366790</v>
       </c>
       <c r="C257" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>354</v>
+        <v>478</v>
       </c>
       <c r="B258" s="3">
         <v>1001304096792</v>
@@ -5462,29 +5465,29 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B259" s="3">
-        <v>1001303636793</v>
+        <v>1001304096792</v>
       </c>
       <c r="C259" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>682</v>
+        <v>355</v>
       </c>
       <c r="B260" s="3">
-        <v>1001303637131</v>
+        <v>1001303636793</v>
       </c>
       <c r="C260" t="s">
-        <v>670</v>
+        <v>366</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>400</v>
+        <v>682</v>
       </c>
       <c r="B261" s="3">
         <v>1001303637131</v>
@@ -5492,13 +5495,10 @@
       <c r="C261" t="s">
         <v>670</v>
       </c>
-      <c r="E261" t="s">
-        <v>671</v>
-      </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>498</v>
+        <v>400</v>
       </c>
       <c r="B262" s="3">
         <v>1001303637131</v>
@@ -5512,7 +5512,7 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>356</v>
+        <v>498</v>
       </c>
       <c r="B263" s="3">
         <v>1001303637131</v>
@@ -5526,51 +5526,54 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B264" s="3">
-        <v>1001302596795</v>
+        <v>1001303637131</v>
       </c>
       <c r="C264" t="s">
-        <v>367</v>
+        <v>670</v>
+      </c>
+      <c r="E264" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B265" s="3">
-        <v>1001302596796</v>
+        <v>1001302596795</v>
       </c>
       <c r="C265" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B266" s="3">
-        <v>1001300456804</v>
+        <v>1001302596796</v>
       </c>
       <c r="C266" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>447</v>
+        <v>359</v>
       </c>
       <c r="B267" s="3">
-        <v>1001300366806</v>
+        <v>1001300456804</v>
       </c>
       <c r="C267" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>360</v>
+        <v>447</v>
       </c>
       <c r="B268" s="3">
         <v>1001300366806</v>
@@ -5581,62 +5584,62 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B269" s="3">
-        <v>1001300516803</v>
+        <v>1001300366806</v>
       </c>
       <c r="C269" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B270" s="3">
-        <v>1001300366807</v>
+        <v>1001300516803</v>
       </c>
       <c r="C270" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="B271" s="3">
         <v>1001300366807</v>
       </c>
       <c r="C271" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B272" s="3">
-        <v>1001300516785</v>
+        <v>1001300366807</v>
       </c>
       <c r="C272" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>538</v>
+        <v>375</v>
       </c>
       <c r="B273" s="3">
-        <v>1001300456787</v>
+        <v>1001300516785</v>
       </c>
       <c r="C273" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="B274" s="3">
         <v>1001300456787</v>
@@ -5647,7 +5650,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>377</v>
+        <v>553</v>
       </c>
       <c r="B275" s="3">
         <v>1001300456787</v>
@@ -5658,73 +5661,73 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B276" s="3">
-        <v>1001303636793</v>
+        <v>1001300456787</v>
       </c>
       <c r="C276" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B277" s="3">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="C277" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B278" s="3">
-        <v>1001012486332</v>
+        <v>1001302596795</v>
       </c>
       <c r="C278" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B279" s="3">
-        <v>1001012566345</v>
+        <v>1001012486332</v>
       </c>
       <c r="C279" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B280" s="3">
-        <v>1001031076528</v>
+        <v>1001012566345</v>
       </c>
       <c r="C280" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="B281" s="3">
-        <v>1001020836761</v>
+        <v>1001031076528</v>
       </c>
       <c r="C281" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B282" s="3">
         <v>1001020836761</v>
@@ -5735,7 +5738,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
       <c r="B283" s="3">
         <v>1001020836761</v>
@@ -5746,18 +5749,18 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="B284" s="3">
-        <v>1001020846764</v>
+        <v>1001020836761</v>
       </c>
       <c r="C284" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B285" s="3">
         <v>1001020846764</v>
@@ -5768,7 +5771,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>395</v>
+        <v>423</v>
       </c>
       <c r="B286" s="3">
         <v>1001020846764</v>
@@ -5779,18 +5782,18 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>494</v>
+        <v>395</v>
       </c>
       <c r="B287" s="3">
-        <v>1001300366790</v>
+        <v>1001020846764</v>
       </c>
       <c r="C287" t="s">
-        <v>363</v>
+        <v>396</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>397</v>
+        <v>494</v>
       </c>
       <c r="B288" s="3">
         <v>1001300366790</v>
@@ -5801,18 +5804,18 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="B289" s="3">
-        <v>1001304096791</v>
+        <v>1001300366790</v>
       </c>
       <c r="C289" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>469</v>
+        <v>353</v>
       </c>
       <c r="B290" s="3">
         <v>1001304096791</v>
@@ -5823,7 +5826,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>398</v>
+        <v>469</v>
       </c>
       <c r="B291" s="3">
         <v>1001304096791</v>
@@ -5834,84 +5837,84 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B292" s="3">
-        <v>1001303636793</v>
+        <v>1001304096791</v>
       </c>
       <c r="C292" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B293" s="3">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="C293" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B294" s="3">
-        <v>1001300516803</v>
+        <v>1001302596795</v>
       </c>
       <c r="C294" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B295" s="3">
-        <v>1001300456804</v>
+        <v>1001300516803</v>
       </c>
       <c r="C295" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B296" s="3">
-        <v>1001300366807</v>
+        <v>1001300456804</v>
       </c>
       <c r="C296" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B297" s="3">
-        <v>1001302596796</v>
+        <v>1001300366807</v>
       </c>
       <c r="C297" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>453</v>
+        <v>405</v>
       </c>
       <c r="B298" s="3">
-        <v>1001023696765</v>
+        <v>1001302596796</v>
       </c>
       <c r="C298" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="B299" s="3">
         <v>1001023696765</v>
@@ -5922,7 +5925,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>407</v>
+        <v>472</v>
       </c>
       <c r="B300" s="3">
         <v>1001023696765</v>
@@ -5933,18 +5936,18 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="B301" s="3">
-        <v>1001023696767</v>
+        <v>1001023696765</v>
       </c>
       <c r="C301" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B302" s="3">
         <v>1001023696767</v>
@@ -5955,7 +5958,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="B303" s="3">
         <v>1001023696767</v>
@@ -5966,18 +5969,18 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B304" s="3">
-        <v>1001024976829</v>
+        <v>1001023696767</v>
       </c>
       <c r="C304" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B305" s="3">
         <v>1001024976829</v>
@@ -5988,29 +5991,29 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="B306" s="3">
-        <v>1001022376722</v>
+        <v>1001024976829</v>
       </c>
       <c r="C306" t="s">
-        <v>125</v>
+        <v>406</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="B307" s="3">
-        <v>1001020846762</v>
+        <v>1001022376722</v>
       </c>
       <c r="C307" t="s">
-        <v>429</v>
+        <v>125</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="B308" s="3">
         <v>1001020846762</v>
@@ -6021,7 +6024,7 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>428</v>
+        <v>471</v>
       </c>
       <c r="B309" s="3">
         <v>1001020846762</v>
@@ -6032,18 +6035,18 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>130</v>
+        <v>428</v>
       </c>
       <c r="B310" s="3">
-        <v>1001022656853</v>
+        <v>1001020846762</v>
       </c>
       <c r="C310" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>493</v>
+        <v>130</v>
       </c>
       <c r="B311" s="3">
         <v>1001022656853</v>
@@ -6054,21 +6057,18 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>572</v>
+        <v>493</v>
       </c>
       <c r="B312" s="3">
-        <v>1001022657075</v>
+        <v>1001022656853</v>
       </c>
       <c r="C312" t="s">
-        <v>603</v>
-      </c>
-      <c r="E312" t="s">
-        <v>622</v>
+        <v>432</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="B313" s="3">
         <v>1001022657075</v>
@@ -6082,7 +6082,7 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>639</v>
+        <v>567</v>
       </c>
       <c r="B314" s="3">
         <v>1001022657075</v>
@@ -6090,10 +6090,13 @@
       <c r="C314" t="s">
         <v>603</v>
       </c>
+      <c r="E314" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>602</v>
+        <v>639</v>
       </c>
       <c r="B315" s="3">
         <v>1001022657075</v>
@@ -6104,29 +6107,29 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>431</v>
+        <v>602</v>
       </c>
       <c r="B316" s="3">
-        <v>1001022656948</v>
+        <v>1001022657075</v>
       </c>
       <c r="C316" t="s">
-        <v>564</v>
+        <v>603</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>608</v>
+        <v>431</v>
       </c>
       <c r="B317" s="3">
-        <v>1001022657073</v>
+        <v>1001022656948</v>
       </c>
       <c r="C317" t="s">
-        <v>609</v>
+        <v>564</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>630</v>
+        <v>608</v>
       </c>
       <c r="B318" s="3">
         <v>1001022657073</v>
@@ -6137,7 +6140,7 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>437</v>
+        <v>630</v>
       </c>
       <c r="B319" s="3">
         <v>1001022657073</v>
@@ -6145,24 +6148,24 @@
       <c r="C319" t="s">
         <v>609</v>
       </c>
-      <c r="E319" t="s">
-        <v>622</v>
-      </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="B320" s="3">
-        <v>1001020836759</v>
+        <v>1001022657073</v>
       </c>
       <c r="C320" t="s">
-        <v>439</v>
+        <v>609</v>
+      </c>
+      <c r="E320" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="B321" s="3">
         <v>1001020836759</v>
@@ -6173,7 +6176,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>438</v>
+        <v>470</v>
       </c>
       <c r="B322" s="3">
         <v>1001020836759</v>
@@ -6184,51 +6187,51 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B323" s="3">
-        <v>1001023856870</v>
+        <v>1001020836759</v>
       </c>
       <c r="C323" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="B324" s="3">
-        <v>1001013956426</v>
+        <v>1001023856870</v>
       </c>
       <c r="C324" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B325" s="3">
-        <v>1001093345495</v>
+        <v>1001013956426</v>
       </c>
       <c r="C325" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>486</v>
+        <v>457</v>
       </c>
       <c r="B326" s="3">
-        <v>1001022656868</v>
+        <v>1001093345495</v>
       </c>
       <c r="C326" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>458</v>
+        <v>486</v>
       </c>
       <c r="B327" s="3">
         <v>1001022656868</v>
@@ -6239,18 +6242,18 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>172</v>
+        <v>458</v>
       </c>
       <c r="B328" s="3">
-        <v>1001034065698</v>
+        <v>1001022656868</v>
       </c>
       <c r="C328" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="B329" s="3">
         <v>1001034065698</v>
@@ -6261,7 +6264,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>484</v>
+        <v>191</v>
       </c>
       <c r="B330" s="3">
         <v>1001034065698</v>
@@ -6272,7 +6275,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>462</v>
+        <v>484</v>
       </c>
       <c r="B331" s="3">
         <v>1001034065698</v>
@@ -6283,18 +6286,18 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="B332" s="3">
-        <v>1001015646861</v>
+        <v>1001034065698</v>
       </c>
       <c r="C332" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="B333" s="3">
         <v>1001015646861</v>
@@ -6305,18 +6308,18 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="B334" s="3">
-        <v>1001025176768</v>
+        <v>1001015646861</v>
       </c>
       <c r="C334" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="B335" s="3">
         <v>1001025176768</v>
@@ -6327,7 +6330,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="B336" s="3">
         <v>1001025176768</v>
@@ -6338,18 +6341,18 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="B337" s="3">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="C337" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="B338" s="3">
         <v>1001025486770</v>
@@ -6360,7 +6363,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="B339" s="3">
         <v>1001025486770</v>
@@ -6371,18 +6374,18 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>214</v>
+        <v>466</v>
       </c>
       <c r="B340" s="3">
-        <v>1001012816340</v>
+        <v>1001025486770</v>
       </c>
       <c r="C340" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>488</v>
+        <v>214</v>
       </c>
       <c r="B341" s="3">
         <v>1001012816340</v>
@@ -6393,7 +6396,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>467</v>
+        <v>488</v>
       </c>
       <c r="B342" s="3">
         <v>1001012816340</v>
@@ -6404,18 +6407,18 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>314</v>
+        <v>467</v>
       </c>
       <c r="B343" s="3">
-        <v>1001203146834</v>
+        <v>1001012816340</v>
       </c>
       <c r="C343" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>461</v>
+        <v>314</v>
       </c>
       <c r="B344" s="3">
         <v>1001203146834</v>
@@ -6426,7 +6429,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="B345" s="3">
         <v>1001203146834</v>
@@ -6437,7 +6440,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="B346" s="3">
         <v>1001203146834</v>
@@ -6448,62 +6451,62 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="B347" s="3">
-        <v>1001300456788</v>
+        <v>1001203146834</v>
       </c>
       <c r="C347" t="s">
-        <v>481</v>
+        <v>436</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="B348" s="3">
-        <v>1001022556837</v>
+        <v>1001300456788</v>
       </c>
       <c r="C348" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B349" s="3">
-        <v>1001300516786</v>
+        <v>1001022556837</v>
       </c>
       <c r="C349" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B350" s="3">
-        <v>1001214196459</v>
+        <v>1001300516786</v>
       </c>
       <c r="C350" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>549</v>
+        <v>499</v>
       </c>
       <c r="B351" s="3">
-        <v>1001092436495</v>
+        <v>1001214196459</v>
       </c>
       <c r="C351" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B352" s="3">
         <v>1001092436495</v>
@@ -6514,7 +6517,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>501</v>
+        <v>556</v>
       </c>
       <c r="B353" s="3">
         <v>1001092436495</v>
@@ -6525,40 +6528,40 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B354" s="3">
-        <v>1001025526901</v>
+        <v>1001092436495</v>
       </c>
       <c r="C354" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B355" s="3">
-        <v>1001025546931</v>
+        <v>1001025526901</v>
       </c>
       <c r="C355" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="B356" s="3">
-        <v>1001010016324</v>
+        <v>1001025546931</v>
       </c>
       <c r="C356" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>542</v>
+        <v>515</v>
       </c>
       <c r="B357" s="3">
         <v>1001010016324</v>
@@ -6569,7 +6572,7 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>508</v>
+        <v>542</v>
       </c>
       <c r="B358" s="3">
         <v>1001010016324</v>
@@ -6580,18 +6583,18 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B359" s="3">
-        <v>1001025766909</v>
+        <v>1001010016324</v>
       </c>
       <c r="C359" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>543</v>
+        <v>512</v>
       </c>
       <c r="B360" s="3">
         <v>1001025766909</v>
@@ -6602,7 +6605,7 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>510</v>
+        <v>543</v>
       </c>
       <c r="B361" s="3">
         <v>1001025766909</v>
@@ -6613,18 +6616,18 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>541</v>
+        <v>510</v>
       </c>
       <c r="B362" s="3">
-        <v>1001010014558</v>
+        <v>1001025766909</v>
       </c>
       <c r="C362" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
       <c r="B363" s="3">
         <v>1001010014558</v>
@@ -6635,18 +6638,18 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="B364" s="3">
-        <v>1001012596802</v>
+        <v>1001010014558</v>
       </c>
       <c r="C364" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="B365" s="3">
         <v>1001012596802</v>
@@ -6657,7 +6660,7 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>516</v>
+        <v>545</v>
       </c>
       <c r="B366" s="3">
         <v>1001012596802</v>
@@ -6668,18 +6671,18 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="B367" s="3">
-        <v>1001012596801</v>
+        <v>1001012596802</v>
       </c>
       <c r="C367" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="B368" s="3">
         <v>1001012596801</v>
@@ -6690,7 +6693,7 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="B369" s="3">
         <v>1001012596801</v>
@@ -6701,62 +6704,62 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B370" s="3">
-        <v>1001062353684</v>
+        <v>1001012596801</v>
       </c>
       <c r="C370" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B371" s="3">
-        <v>1001010014555</v>
+        <v>1001062353684</v>
       </c>
       <c r="C371" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B372" s="3">
-        <v>1001083424691</v>
+        <v>1001010014555</v>
       </c>
       <c r="C372" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B373" s="3">
-        <v>1001190765679</v>
+        <v>1001083424691</v>
       </c>
       <c r="C373" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>673</v>
+        <v>526</v>
       </c>
       <c r="B374" s="3">
-        <v>1001085637187</v>
+        <v>1001190765679</v>
       </c>
       <c r="C374" t="s">
-        <v>672</v>
+        <v>527</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>528</v>
+        <v>673</v>
       </c>
       <c r="B375" s="3">
         <v>1001085637187</v>
@@ -6764,46 +6767,46 @@
       <c r="C375" t="s">
         <v>672</v>
       </c>
-      <c r="E375" t="s">
-        <v>671</v>
-      </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B376" s="3">
-        <v>1001020836253</v>
+        <v>1001085637187</v>
       </c>
       <c r="C376" t="s">
-        <v>530</v>
+        <v>672</v>
+      </c>
+      <c r="E376" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B377" s="3">
-        <v>1001084226492</v>
+        <v>1001020836253</v>
       </c>
       <c r="C377" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>631</v>
+        <v>531</v>
       </c>
       <c r="B378" s="3">
-        <v>1001223297092</v>
+        <v>1001084226492</v>
       </c>
       <c r="C378" t="s">
-        <v>621</v>
+        <v>532</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>534</v>
+        <v>631</v>
       </c>
       <c r="B379" s="3">
         <v>1001223297092</v>
@@ -6811,82 +6814,79 @@
       <c r="C379" t="s">
         <v>621</v>
       </c>
-      <c r="E379" t="s">
-        <v>622</v>
-      </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B380" s="3">
-        <v>1001053944786</v>
+        <v>1001223297092</v>
       </c>
       <c r="C380" t="s">
-        <v>536</v>
+        <v>621</v>
+      </c>
+      <c r="E380" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B381" s="3">
-        <v>1001010016839</v>
+        <v>1001053944786</v>
       </c>
       <c r="C381" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B382" s="3">
-        <v>1001023857038</v>
+        <v>1001010016839</v>
       </c>
       <c r="C382" t="s">
-        <v>584</v>
+        <v>540</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B383" s="3">
-        <v>1001040434903</v>
+        <v>1001023857038</v>
       </c>
       <c r="C383" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B384" s="3">
-        <v>1001080216842</v>
+        <v>1001040434903</v>
       </c>
       <c r="C384" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="B385" s="3">
-        <v>1001022467082</v>
+        <v>1001080216842</v>
       </c>
       <c r="C385" t="s">
-        <v>605</v>
-      </c>
-      <c r="E385" t="s">
-        <v>622</v>
+        <v>551</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B386" s="3">
         <v>1001022467082</v>
@@ -6900,7 +6900,7 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>642</v>
+        <v>566</v>
       </c>
       <c r="B387" s="3">
         <v>1001022467082</v>
@@ -6908,10 +6908,13 @@
       <c r="C387" t="s">
         <v>605</v>
       </c>
+      <c r="E387" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>620</v>
+        <v>642</v>
       </c>
       <c r="B388" s="3">
         <v>1001022467082</v>
@@ -6922,7 +6925,7 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
       <c r="B389" s="3">
         <v>1001022467082</v>
@@ -6933,18 +6936,18 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>628</v>
+        <v>604</v>
       </c>
       <c r="B390" s="3">
-        <v>1001035277059</v>
+        <v>1001022467082</v>
       </c>
       <c r="C390" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>570</v>
+        <v>628</v>
       </c>
       <c r="B391" s="3">
         <v>1001035277059</v>
@@ -6952,68 +6955,68 @@
       <c r="C391" t="s">
         <v>623</v>
       </c>
-      <c r="E391" t="s">
-        <v>622</v>
-      </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B392" s="3">
-        <v>1001062353680</v>
+        <v>1001035277059</v>
       </c>
       <c r="C392" t="s">
-        <v>575</v>
+        <v>623</v>
+      </c>
+      <c r="E392" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B393" s="3">
-        <v>1001061971146</v>
+        <v>1001062353680</v>
       </c>
       <c r="C393" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B394" s="3">
-        <v>1001225636201</v>
+        <v>1001061971146</v>
       </c>
       <c r="C394" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B395" s="3">
-        <v>1001020836724</v>
+        <v>1001225636201</v>
       </c>
       <c r="C395" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>683</v>
+        <v>580</v>
       </c>
       <c r="B396" s="3">
-        <v>1001095227235</v>
+        <v>1001020836724</v>
       </c>
       <c r="C396" t="s">
-        <v>675</v>
+        <v>581</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>582</v>
+        <v>683</v>
       </c>
       <c r="B397" s="3">
         <v>1001095227235</v>
@@ -7021,46 +7024,46 @@
       <c r="C397" t="s">
         <v>675</v>
       </c>
-      <c r="E397" t="s">
-        <v>674</v>
-      </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B398" s="3">
-        <v>1001023857038</v>
+        <v>1001095227235</v>
       </c>
       <c r="C398" t="s">
-        <v>584</v>
+        <v>675</v>
+      </c>
+      <c r="E398" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B399" s="3">
-        <v>1001025027040</v>
+        <v>1001023857038</v>
       </c>
       <c r="C399" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B400" s="3">
-        <v>1001223297103</v>
+        <v>1001025027040</v>
       </c>
       <c r="C400" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B401" s="3">
         <v>1001223297103</v>
@@ -7071,7 +7074,7 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>646</v>
+        <v>589</v>
       </c>
       <c r="B402" s="3">
         <v>1001223297103</v>
@@ -7082,7 +7085,7 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>588</v>
+        <v>646</v>
       </c>
       <c r="B403" s="3">
         <v>1001223297103</v>
@@ -7093,18 +7096,18 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>610</v>
+        <v>588</v>
       </c>
       <c r="B404" s="3">
-        <v>1001010032675</v>
+        <v>1001223297103</v>
       </c>
       <c r="C404" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="B405" s="3">
         <v>1001010032675</v>
@@ -7115,18 +7118,18 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>615</v>
+        <v>590</v>
       </c>
       <c r="B406" s="3">
-        <v>1001035937001</v>
+        <v>1001010032675</v>
       </c>
       <c r="C406" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="B407" s="3">
         <v>1001035937001</v>
@@ -7137,7 +7140,7 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>592</v>
+        <v>625</v>
       </c>
       <c r="B408" s="3">
         <v>1001035937001</v>
@@ -7148,21 +7151,18 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>463</v>
+        <v>592</v>
       </c>
       <c r="B409" s="3">
-        <v>1001084217090</v>
+        <v>1001035937001</v>
       </c>
       <c r="C409" t="s">
-        <v>595</v>
-      </c>
-      <c r="E409" t="s">
-        <v>647</v>
+        <v>593</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>665</v>
+        <v>463</v>
       </c>
       <c r="B410" s="3">
         <v>1001084217090</v>
@@ -7170,10 +7170,13 @@
       <c r="C410" t="s">
         <v>595</v>
       </c>
+      <c r="E410" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>616</v>
+        <v>665</v>
       </c>
       <c r="B411" s="3">
         <v>1001084217090</v>
@@ -7184,7 +7187,7 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>594</v>
+        <v>616</v>
       </c>
       <c r="B412" s="3">
         <v>1001084217090</v>
@@ -7195,18 +7198,18 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>617</v>
+        <v>594</v>
       </c>
       <c r="B413" s="3">
-        <v>1001022377066</v>
+        <v>1001084217090</v>
       </c>
       <c r="C413" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="B414" s="3">
         <v>1001022377066</v>
@@ -7217,7 +7220,7 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>596</v>
+        <v>629</v>
       </c>
       <c r="B415" s="3">
         <v>1001022377066</v>
@@ -7228,18 +7231,18 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>681</v>
+        <v>596</v>
       </c>
       <c r="B416" s="3">
-        <v>1001010027126</v>
+        <v>1001022377066</v>
       </c>
       <c r="C416" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>611</v>
+        <v>681</v>
       </c>
       <c r="B417" s="3">
         <v>1001010027126</v>
@@ -7250,347 +7253,358 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B418" s="3">
-        <v>1001010027125</v>
+        <v>1001010027126</v>
       </c>
       <c r="C418" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="B419" s="3">
-        <v>1001223297053</v>
+        <v>1001010027125</v>
       </c>
       <c r="C419" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="B420" s="3">
-        <v>1001093316411</v>
+        <v>1001223297053</v>
       </c>
       <c r="C420" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B421" s="3">
-        <v>1001025526962</v>
+        <v>1001093316411</v>
       </c>
       <c r="C421" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B422" s="3">
-        <v>1001025886987</v>
+        <v>1001025526962</v>
       </c>
       <c r="C422" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="B423" s="3">
-        <v>1001204447052</v>
+        <v>1001025886987</v>
       </c>
       <c r="C423" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="B424" s="3">
-        <v>1001084227087</v>
+        <v>1001204447052</v>
       </c>
       <c r="C424" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B425" s="3">
-        <v>1001203207105</v>
+        <v>1001084227087</v>
       </c>
       <c r="C425" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B426" s="3">
-        <v>1001205447106</v>
+        <v>1001203207105</v>
       </c>
       <c r="C426" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B427" s="3">
-        <v>1001205467107</v>
+        <v>1001205447106</v>
       </c>
       <c r="C427" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B428" s="3">
-        <v>1001015676877</v>
+        <v>1001205467107</v>
       </c>
       <c r="C428" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="B429" s="3">
-        <v>1001016366888</v>
+        <v>1001015676877</v>
       </c>
       <c r="C429" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="B430" s="3">
-        <v>1001303107241</v>
+        <v>1001016366888</v>
       </c>
       <c r="C430" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="B431" s="3">
-        <v>1001013957231</v>
+        <v>1001303107241</v>
       </c>
       <c r="C431" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B432" s="3">
-        <v>1001092687245</v>
+        <v>1001013957231</v>
       </c>
       <c r="C432" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B433" s="3">
-        <v>1001063237147</v>
+        <v>1001092687245</v>
       </c>
       <c r="C433" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B434" s="3">
-        <v>1001066537225</v>
+        <v>1001063237147</v>
       </c>
       <c r="C434" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B435" s="3">
-        <v>1001063097227</v>
+        <v>1001066537225</v>
       </c>
       <c r="C435" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B436" s="3">
-        <v>1001066527226</v>
+        <v>1001063097227</v>
       </c>
       <c r="C436" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B437" s="3">
-        <v>1001022557244</v>
+        <v>1001066527226</v>
       </c>
       <c r="C437" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B438" s="3">
-        <v>1001063237229</v>
+        <v>1001022557244</v>
       </c>
       <c r="C438" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B439" s="3">
-        <v>1001026617250</v>
+        <v>1001063237229</v>
       </c>
       <c r="C439" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B440" s="3">
-        <v>1001022467276</v>
+        <v>1001026617250</v>
       </c>
       <c r="C440" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B441" s="3">
-        <v>1001025767284</v>
+        <v>1001022467276</v>
       </c>
       <c r="C441" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B442" s="3">
-        <v>1001063237150</v>
+        <v>1001025767284</v>
       </c>
       <c r="C442" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B443" s="3">
-        <v>1001025507271</v>
+        <v>1001063237150</v>
       </c>
       <c r="C443" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B444" s="3">
-        <v>1001301777332</v>
+        <v>1001025507271</v>
       </c>
       <c r="C444" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B445" s="3">
-        <v>1001300387157</v>
+        <v>1001301777332</v>
       </c>
       <c r="C445" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B446" s="3">
-        <v>1001016747343</v>
+        <v>1001300387157</v>
       </c>
       <c r="C446" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B447" s="3">
-        <v>1001061973986</v>
+        <v>1001016747343</v>
       </c>
       <c r="C447" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B448" s="3">
+        <v>1001061973986</v>
+      </c>
+      <c r="C448" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="B448" s="3">
+      <c r="B449" s="3">
         <v>1001303987333</v>
       </c>
-      <c r="C448" t="s">
+      <c r="C449" t="s">
         <v>719</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C430" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C449" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0226B1-8B34-47E7-8F37-50287976CFC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ECCDDB-A3FB-4F0A-A813-E7AFAE38DB44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="726">
   <si>
     <t>1С</t>
   </si>
@@ -2200,6 +2200,18 @@
   </si>
   <si>
     <t>6220 ГОВЯЖЬЯ Папа может вар п/о  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6832 АССОРТИ СЫРОКОПЧЕНЫХ КОЛБАС Коровино в/у  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>АССОРТИ СЫРОКОПЧЕНЫХ КОЛБАС Коровино в/у</t>
+  </si>
+  <si>
+    <t>7299 НАБОР ДЛЯ ПИЦЦЫ Папа может с/к в/у  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>НАБОР ДЛЯ ПИЦЦЫ Папа Может с/к в/у</t>
   </si>
 </sst>
 </file>
@@ -2553,11 +2565,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F449"/>
+  <dimension ref="A1:F451"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7603,6 +7615,28 @@
         <v>719</v>
       </c>
     </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B450" s="3">
+        <v>1001065616832</v>
+      </c>
+      <c r="C450" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B451" s="3">
+        <v>1001060677299</v>
+      </c>
+      <c r="C451" t="s">
+        <v>725</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C449" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ECCDDB-A3FB-4F0A-A813-E7AFAE38DB44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF52D023-65D5-4915-AB6F-AB44B870C835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$449</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$451</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="727">
   <si>
     <t>1С</t>
   </si>
@@ -138,9 +138,6 @@
     <t>5682 САЛЯМИ МЕЛКОЗЕРНЕНАЯ с/к в/у 1/120_60с   ОСТАНКИНО</t>
   </si>
   <si>
-    <t>САЛЯМИ МЕЛКОЗЕРНЕНАЯ с/к в/у 1/120_60с</t>
-  </si>
-  <si>
     <t>5706 АРОМАТНАЯ Папа может с/к в/у 1/250 8шт.  ОСТАНКИНО</t>
   </si>
   <si>
@@ -2212,6 +2209,12 @@
   </si>
   <si>
     <t>НАБОР ДЛЯ ПИЦЦЫ Папа Может с/к в/у</t>
+  </si>
+  <si>
+    <t>ротация 01,12,25</t>
+  </si>
+  <si>
+    <t>САЛЯМИ МЕЛКОЗЕРНЕНАЯ с/к в/у 1/120 8шт.</t>
   </si>
 </sst>
 </file>
@@ -2569,7 +2572,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2661,68 +2664,68 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B8" s="3">
         <v>1001095716865</v>
       </c>
       <c r="C8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B9" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B10" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B11" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B12" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B13" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C13" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2733,12 +2736,12 @@
         <v>1001095716865</v>
       </c>
       <c r="C14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B15" s="3">
         <v>1001092446756</v>
@@ -2799,29 +2802,29 @@
         <v>1001015646861</v>
       </c>
       <c r="C20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B21" s="3">
         <v>1001015706862</v>
       </c>
       <c r="C21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B22" s="3">
         <v>1001015706862</v>
       </c>
       <c r="C22" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2832,7 +2835,7 @@
         <v>1001015706862</v>
       </c>
       <c r="C23" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2843,21 +2846,21 @@
         <v>1001303987166</v>
       </c>
       <c r="C24" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E24" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B25" s="3">
         <v>1001303987166</v>
       </c>
       <c r="C25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2887,1447 +2890,1450 @@
         <v>33</v>
       </c>
       <c r="B28" s="3">
-        <v>1001193115682</v>
+        <v>1001203117382</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>726</v>
+      </c>
+      <c r="E28" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="3">
         <v>1001061975706</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="3">
         <v>1001063145708</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="3">
         <v>1001022465820</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="3">
         <v>1001012505851</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B33" s="3">
         <v>1001060755931</v>
       </c>
       <c r="C33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="3">
         <v>1001060755931</v>
       </c>
       <c r="C34" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" s="3">
         <v>1001012815997</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="3">
         <v>1001024906042</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" s="3">
         <v>1001024976829</v>
       </c>
       <c r="C37" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" s="3">
         <v>1001220286279</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" s="3">
         <v>1001084216206</v>
       </c>
       <c r="C39" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B40" s="3">
         <v>1001022556069</v>
       </c>
       <c r="C40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" s="3">
         <v>1001022556069</v>
       </c>
       <c r="C41" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42" s="3">
         <v>1001010106325</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" s="3">
         <v>1001012486333</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44" s="3">
         <v>1001012506353</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B45" s="3">
         <v>1001304507236</v>
       </c>
       <c r="C45" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B46" s="3">
         <v>1001304507236</v>
       </c>
       <c r="C46" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E46" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B47" s="3">
         <v>1001304507236</v>
       </c>
       <c r="C47" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E47" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B48" s="3">
         <v>1001303056692</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49" s="3">
         <v>1001303637149</v>
       </c>
       <c r="C49" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E49" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B50" s="3">
         <v>1001303637149</v>
       </c>
       <c r="C50" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B51" s="3">
         <v>1001013956426</v>
       </c>
       <c r="C51" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B52" s="3">
         <v>1001024636438</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B53" s="3">
         <v>1001234146448</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B54" s="3">
         <v>1001202506453</v>
       </c>
       <c r="C54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" s="3">
         <v>1001202506453</v>
       </c>
       <c r="C55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B56" s="3">
         <v>1001201976454</v>
       </c>
       <c r="C56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B57" s="3">
         <v>1001025176475</v>
       </c>
       <c r="C57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B58" s="3">
         <v>1001301876697</v>
       </c>
       <c r="C58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B59" s="3">
         <v>1001024636517</v>
       </c>
       <c r="C59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B60" s="3">
         <v>1001031076527</v>
       </c>
       <c r="C60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B61" s="3">
         <v>1001304506562</v>
       </c>
       <c r="C61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B62" s="3">
         <v>1001020846563</v>
       </c>
       <c r="C62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B63" s="3">
         <v>1001020836589</v>
       </c>
       <c r="C63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B64" s="3">
         <v>6751</v>
       </c>
       <c r="C64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B65" s="3">
         <v>1001010016592</v>
       </c>
       <c r="C65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B66" s="3">
         <v>1001010026594</v>
       </c>
       <c r="C66" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B67" s="3">
         <v>1001022296601</v>
       </c>
       <c r="C67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B68" s="3">
         <v>1001031896648</v>
       </c>
       <c r="C68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B69" s="3">
         <v>1001035266650</v>
       </c>
       <c r="C69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B70" s="3">
         <v>1001305256658</v>
       </c>
       <c r="C70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B71" s="3">
         <v>1001010016593</v>
       </c>
       <c r="C71" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B72" s="3">
         <v>1001010026595</v>
       </c>
       <c r="C72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B73" s="3">
         <v>1001010036597</v>
       </c>
       <c r="C73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B74" s="3">
         <v>1001020886646</v>
       </c>
       <c r="C74" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B75" s="3">
         <v>1001305306566</v>
       </c>
       <c r="C75" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B76" s="3">
         <v>1001305306566</v>
       </c>
       <c r="C76" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B77" s="3">
         <v>1001300387154</v>
       </c>
       <c r="C77" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B78" s="3">
         <v>1001300387154</v>
       </c>
       <c r="C78" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E78" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B79" s="3">
         <v>1001303987169</v>
       </c>
       <c r="C79" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B80" s="3">
         <v>1001303987169</v>
       </c>
       <c r="C80" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E80" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B81" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C81" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B82" s="4">
         <v>1001303106773</v>
       </c>
       <c r="C82" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B83" s="4">
         <v>1001303106773</v>
       </c>
       <c r="C83" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B84" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C84" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B85" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C85" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B86" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C86" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B87" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C87" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B88" s="3">
         <v>1001012566392</v>
       </c>
       <c r="C88" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B89" s="3">
         <v>1001012566392</v>
       </c>
       <c r="C89" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B90" s="3">
         <v>1001012566392</v>
       </c>
       <c r="C90" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B91" s="3">
         <v>1001302277232</v>
       </c>
       <c r="C91" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B92" s="3">
         <v>1001302277232</v>
       </c>
       <c r="C92" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E92" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B93" s="3">
         <v>1001012426268</v>
       </c>
       <c r="C93" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B94" s="3">
         <v>1001024906041</v>
       </c>
       <c r="C94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B95" s="3">
         <v>1001011086247</v>
       </c>
       <c r="C95" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B96" s="3">
         <v>1001014486158</v>
       </c>
       <c r="C96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B97" s="3">
         <v>1001015356259</v>
       </c>
       <c r="C97" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B98" s="3">
         <v>1001012816716</v>
       </c>
       <c r="C98" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B99" s="3">
         <v>1001020966227</v>
       </c>
       <c r="C99" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B100" s="3">
         <v>1001020966227</v>
       </c>
       <c r="C100" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B101" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C101" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B102" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C102" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B103" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C103" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B104" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B105" s="3">
         <v>1001022466726</v>
       </c>
       <c r="C105" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B106" s="3">
         <v>1001020966144</v>
       </c>
       <c r="C106" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B107" s="3">
         <v>1001022376722</v>
       </c>
       <c r="C107" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B108" s="3">
         <v>1001022377070</v>
       </c>
       <c r="C108" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E108" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B109" s="3">
         <v>1001022377070</v>
       </c>
       <c r="C109" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E109" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B110" s="3">
         <v>1001022377070</v>
       </c>
       <c r="C110" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B111" s="3">
         <v>1001022377070</v>
       </c>
       <c r="C111" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B112" s="3">
         <v>1001022376955</v>
       </c>
       <c r="C112" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B113" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C113" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B114" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C114" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B115" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C115" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B116" s="3">
         <v>1001022246713</v>
       </c>
       <c r="C116" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B117" s="3">
         <v>1001025166241</v>
       </c>
       <c r="C117" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B118" s="3">
         <v>6606</v>
       </c>
       <c r="C118" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B119" s="3">
         <v>1001035326217</v>
       </c>
       <c r="C119" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B120" s="3">
         <v>1001303636301</v>
       </c>
       <c r="C120" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B121" s="3">
         <v>1001303636302</v>
       </c>
       <c r="C121" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B122" s="3">
         <v>1001305196215</v>
       </c>
       <c r="C122" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B123" s="3">
         <v>1001301876212</v>
       </c>
       <c r="C123" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B124" s="3">
         <v>1001301876213</v>
       </c>
       <c r="C124" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B125" s="3">
         <v>1001303636302</v>
       </c>
       <c r="C125" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B126" s="3">
         <v>6645</v>
       </c>
       <c r="C126" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B127" s="3">
         <v>1001225416228</v>
       </c>
       <c r="C127" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B128" s="3">
         <v>6225</v>
       </c>
       <c r="C128" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B129" s="3">
         <v>1001022377066</v>
       </c>
       <c r="C129" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E129" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B130" s="3">
         <v>1001022377066</v>
       </c>
       <c r="C130" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E130" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B131" s="3">
         <v>1001022377066</v>
       </c>
       <c r="C131" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E131" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B132" s="3">
         <v>3297</v>
       </c>
       <c r="C132" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B133" s="3">
         <v>1001022467080</v>
       </c>
       <c r="C133" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E133" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B134" s="3">
         <v>1001022467080</v>
       </c>
       <c r="C134" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E134" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B135" s="3">
         <v>1001022467080</v>
       </c>
       <c r="C135" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B136" s="3">
         <v>1001022467080</v>
       </c>
       <c r="C136" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B137" s="3">
         <v>1001022467080</v>
       </c>
       <c r="C137" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B138" s="3">
         <v>1001021966602</v>
       </c>
       <c r="C138" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B139" s="3">
         <v>6233</v>
       </c>
       <c r="C139" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B140" s="3">
         <v>1001012816341</v>
       </c>
       <c r="C140" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B141" s="3">
         <v>1001012816341</v>
       </c>
       <c r="C141" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B142" s="3">
         <v>1001012816341</v>
       </c>
       <c r="C142" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B143" s="3">
         <v>1001012816341</v>
       </c>
       <c r="C143" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B144" s="3">
         <v>6750</v>
       </c>
       <c r="C144" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B145" s="3">
         <v>6751</v>
       </c>
       <c r="C145" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B146" s="3">
         <v>5982</v>
       </c>
       <c r="C146" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B147" s="3">
         <v>1001022657074</v>
       </c>
       <c r="C147" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E147" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B148" s="3">
         <v>1001022657074</v>
       </c>
       <c r="C148" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E148" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B149" s="3">
         <v>1001022657074</v>
       </c>
       <c r="C149" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B150" s="3">
         <v>1001022656854</v>
       </c>
       <c r="C150" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B151" s="3">
         <v>1001094966025</v>
       </c>
       <c r="C151" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B152" s="3">
         <v>6025</v>
       </c>
       <c r="C152" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B153" s="3">
         <v>6221</v>
       </c>
       <c r="C153" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B154" s="3">
         <v>1001205376221</v>
       </c>
       <c r="C154" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B155" s="3">
         <v>1001022373812</v>
@@ -4338,227 +4344,227 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B156" s="3">
         <v>1001100606827</v>
       </c>
       <c r="C156" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B157" s="3">
         <v>1001100606827</v>
       </c>
       <c r="C157" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B158" s="3">
         <v>1001100616826</v>
       </c>
       <c r="C158" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B159" s="3">
         <v>1001100616826</v>
       </c>
       <c r="C159" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B160" s="3">
         <v>1001100626828</v>
       </c>
       <c r="C160" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B161" s="3">
         <v>1001100626828</v>
       </c>
       <c r="C161" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B162" s="3">
         <v>1001035026308</v>
       </c>
       <c r="C162" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B163" s="3">
         <v>1001014486159</v>
       </c>
       <c r="C163" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B164" s="3">
         <v>1001014486159</v>
       </c>
       <c r="C164" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B165" s="3">
         <v>1001035326217</v>
       </c>
       <c r="C165" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B166" s="3">
         <v>1001012426220</v>
       </c>
       <c r="C166" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B167" s="3">
         <v>1001012426220</v>
       </c>
       <c r="C167" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B168" s="3">
         <v>1001012426220</v>
       </c>
       <c r="C168" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B169" s="3">
         <v>1001022466236</v>
       </c>
       <c r="C169" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B170" s="3">
         <v>1001021966602</v>
       </c>
       <c r="C170" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B171" s="3">
         <v>1001022296656</v>
       </c>
       <c r="C171" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B172" s="3">
         <v>1001301876697</v>
       </c>
       <c r="C172" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B173" s="3">
         <v>1001022246713</v>
       </c>
       <c r="C173" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B174" s="3">
         <v>1001020846751</v>
       </c>
       <c r="C174" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B175" s="3">
         <v>1001022725819</v>
       </c>
       <c r="C175" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B176" s="3">
         <v>1001012825337</v>
@@ -4569,7 +4575,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B177" s="3">
         <v>1001012815336</v>
@@ -4580,260 +4586,260 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B178" s="3">
         <v>1001234146448</v>
       </c>
       <c r="C178" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B179" s="3">
         <v>1001022725819</v>
       </c>
       <c r="C179" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B180" s="3">
         <v>1001092676027</v>
       </c>
       <c r="C180" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B181" s="3">
         <v>1001301876213</v>
       </c>
       <c r="C181" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B182" s="3">
         <v>1001035026308</v>
       </c>
       <c r="C182" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B183" s="3">
         <v>1001234146448</v>
       </c>
       <c r="C183" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B184" s="3">
         <v>1001201976454</v>
       </c>
       <c r="C184" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B185" s="3">
         <v>1001025176475</v>
       </c>
       <c r="C185" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B186" s="3">
         <v>1001012456498</v>
       </c>
       <c r="C186" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B187" s="3">
         <v>1001010036596</v>
       </c>
       <c r="C187" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B188" s="3">
         <v>1001033856608</v>
       </c>
       <c r="C188" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B189" s="3">
         <v>1001033856608</v>
       </c>
       <c r="C189" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B190" s="3">
         <v>1001033856609</v>
       </c>
       <c r="C190" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B191" s="3">
         <v>1001033856609</v>
       </c>
       <c r="C191" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B192" s="3">
         <v>1001093345495</v>
       </c>
       <c r="C192" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B193" s="3">
         <v>6550</v>
       </c>
       <c r="C193" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B194" s="3">
         <v>1001010113248</v>
       </c>
       <c r="C194" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B195" s="3">
         <v>1001063926780</v>
       </c>
       <c r="C195" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B196" s="3">
         <v>6586</v>
       </c>
       <c r="C196" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B197" s="3">
         <v>1001303636467</v>
       </c>
       <c r="C197" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B198" s="3">
         <v>1001304496701</v>
       </c>
       <c r="C198" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B199" s="3">
         <v>6144</v>
       </c>
       <c r="C199" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B200" s="3">
         <v>1001022725819</v>
       </c>
       <c r="C200" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B201" s="3">
         <v>1001022373812</v>
@@ -4844,73 +4850,73 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B202" s="3">
         <v>1001024906062</v>
       </c>
       <c r="C202" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B203" s="3">
         <v>1001300386683</v>
       </c>
       <c r="C203" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B204" s="3">
         <v>1001303986689</v>
       </c>
       <c r="C204" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B205" s="3">
         <v>1001303056692</v>
       </c>
       <c r="C205" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B206" s="3">
         <v>1001301876697</v>
       </c>
       <c r="C206" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B207" s="3">
         <v>1001302276666</v>
       </c>
       <c r="C207" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B208" s="3">
         <v>1001012634574</v>
@@ -4921,343 +4927,343 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B209" s="3">
         <v>1001092485452</v>
       </c>
       <c r="C209" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B210" s="3">
         <v>1001020966144</v>
       </c>
       <c r="C210" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B211" s="3">
         <v>6586</v>
       </c>
       <c r="C211" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B212" s="3">
         <v>1001304496701</v>
       </c>
       <c r="C212" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B213" s="3">
         <v>1001063655015</v>
       </c>
       <c r="C213" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B214" s="3">
         <v>1001060763287</v>
       </c>
       <c r="C214" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B215" s="3">
         <v>1001225416228</v>
       </c>
       <c r="C215" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B216" s="3">
         <v>1001032736550</v>
       </c>
       <c r="C216" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B217" s="3">
         <v>6758</v>
       </c>
       <c r="C217" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B218" s="3">
         <v>1001020965976</v>
       </c>
       <c r="C218" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B219" s="3">
         <v>1001215576586</v>
       </c>
       <c r="C219" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B220" s="3">
         <v>1001094896026</v>
       </c>
       <c r="C220" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B221" s="3">
         <v>1001215576586</v>
       </c>
       <c r="C221" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B222" s="3">
         <v>1001215576586</v>
       </c>
       <c r="C222" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B223" s="3">
         <v>1001092436470</v>
       </c>
       <c r="C223" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B224" s="3">
         <v>1001203146555</v>
       </c>
       <c r="C224" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B225" s="3">
         <v>1001014765992</v>
       </c>
       <c r="C225" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B226" s="3">
         <v>1001014765992</v>
       </c>
       <c r="C226" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B227" s="3">
         <v>1001014765993</v>
       </c>
       <c r="C227" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B228" s="3">
         <v>1001025166776</v>
       </c>
       <c r="C228" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B229" s="3">
         <v>1001025507077</v>
       </c>
       <c r="C229" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E229" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B230" s="3">
         <v>1001025507077</v>
       </c>
       <c r="C230" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E230" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B231" s="3">
         <v>1001025507077</v>
       </c>
       <c r="C231" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B232" s="3">
         <v>1001025507077</v>
       </c>
       <c r="C232" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B233" s="3">
         <v>1001025507077</v>
       </c>
       <c r="C233" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B234" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C234" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B235" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C235" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B236" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C236" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B237" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C237" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B238" s="3">
         <v>1001024976616</v>
       </c>
       <c r="C238" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B239" s="3">
         <v>1001010855247</v>
@@ -5268,2377 +5274,2377 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B240" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C240" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B241" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C241" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B242" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C242" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B243" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C243" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B244" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C244" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B245" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C245" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B246" s="3">
         <v>1001014765993</v>
       </c>
       <c r="C246" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B247" s="3">
         <v>1001025166776</v>
       </c>
       <c r="C247" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B248" s="3">
         <v>1001025526778</v>
       </c>
       <c r="C248" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B249" s="3">
         <v>1001304236685</v>
       </c>
       <c r="C249" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B250" s="3">
         <v>1001015496769</v>
       </c>
       <c r="C250" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B251" s="3">
         <v>1001015496769</v>
       </c>
       <c r="C251" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B252" s="3">
         <v>1001014766798</v>
       </c>
       <c r="C252" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B253" s="3">
         <v>1001015026797</v>
       </c>
       <c r="C253" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B254" s="3">
         <v>1001205386222</v>
       </c>
       <c r="C254" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B255" s="3">
         <v>1001092675224</v>
       </c>
       <c r="C255" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B256" s="3">
         <v>1001225406223</v>
       </c>
       <c r="C256" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B257" s="3">
         <v>1001300366790</v>
       </c>
       <c r="C257" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B258" s="3">
         <v>1001304096792</v>
       </c>
       <c r="C258" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B259" s="3">
         <v>1001304096792</v>
       </c>
       <c r="C259" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B260" s="3">
         <v>1001303636793</v>
       </c>
       <c r="C260" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B261" s="3">
         <v>1001303637131</v>
       </c>
       <c r="C261" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B262" s="3">
         <v>1001303637131</v>
       </c>
       <c r="C262" t="s">
+        <v>669</v>
+      </c>
+      <c r="E262" t="s">
         <v>670</v>
-      </c>
-      <c r="E262" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B263" s="3">
         <v>1001303637131</v>
       </c>
       <c r="C263" t="s">
+        <v>669</v>
+      </c>
+      <c r="E263" t="s">
         <v>670</v>
-      </c>
-      <c r="E263" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B264" s="3">
         <v>1001303637131</v>
       </c>
       <c r="C264" t="s">
+        <v>669</v>
+      </c>
+      <c r="E264" t="s">
         <v>670</v>
-      </c>
-      <c r="E264" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B265" s="3">
         <v>1001302596795</v>
       </c>
       <c r="C265" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B266" s="3">
         <v>1001302596796</v>
       </c>
       <c r="C266" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B267" s="3">
         <v>1001300456804</v>
       </c>
       <c r="C267" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B268" s="3">
         <v>1001300366806</v>
       </c>
       <c r="C268" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B269" s="3">
         <v>1001300366806</v>
       </c>
       <c r="C269" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B270" s="3">
         <v>1001300516803</v>
       </c>
       <c r="C270" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B271" s="3">
         <v>1001300366807</v>
       </c>
       <c r="C271" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B272" s="3">
         <v>1001300366807</v>
       </c>
       <c r="C272" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B273" s="3">
         <v>1001300516785</v>
       </c>
       <c r="C273" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B274" s="3">
         <v>1001300456787</v>
       </c>
       <c r="C274" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B275" s="3">
         <v>1001300456787</v>
       </c>
       <c r="C275" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B276" s="3">
         <v>1001300456787</v>
       </c>
       <c r="C276" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B277" s="3">
         <v>1001303636793</v>
       </c>
       <c r="C277" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B278" s="3">
         <v>1001302596795</v>
       </c>
       <c r="C278" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B279" s="3">
         <v>1001012486332</v>
       </c>
       <c r="C279" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B280" s="3">
         <v>1001012566345</v>
       </c>
       <c r="C280" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B281" s="3">
         <v>1001031076528</v>
       </c>
       <c r="C281" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B282" s="3">
         <v>1001020836761</v>
       </c>
       <c r="C282" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B283" s="3">
         <v>1001020836761</v>
       </c>
       <c r="C283" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B284" s="3">
         <v>1001020836761</v>
       </c>
       <c r="C284" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B285" s="3">
         <v>1001020846764</v>
       </c>
       <c r="C285" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B286" s="3">
         <v>1001020846764</v>
       </c>
       <c r="C286" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B287" s="3">
         <v>1001020846764</v>
       </c>
       <c r="C287" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B288" s="3">
         <v>1001300366790</v>
       </c>
       <c r="C288" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B289" s="3">
         <v>1001300366790</v>
       </c>
       <c r="C289" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B290" s="3">
         <v>1001304096791</v>
       </c>
       <c r="C290" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B291" s="3">
         <v>1001304096791</v>
       </c>
       <c r="C291" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B292" s="3">
         <v>1001304096791</v>
       </c>
       <c r="C292" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B293" s="3">
         <v>1001303636793</v>
       </c>
       <c r="C293" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B294" s="3">
         <v>1001302596795</v>
       </c>
       <c r="C294" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B295" s="3">
         <v>1001300516803</v>
       </c>
       <c r="C295" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B296" s="3">
         <v>1001300456804</v>
       </c>
       <c r="C296" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B297" s="3">
         <v>1001300366807</v>
       </c>
       <c r="C297" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B298" s="3">
         <v>1001302596796</v>
       </c>
       <c r="C298" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B299" s="3">
         <v>1001023696765</v>
       </c>
       <c r="C299" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B300" s="3">
         <v>1001023696765</v>
       </c>
       <c r="C300" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B301" s="3">
         <v>1001023696765</v>
       </c>
       <c r="C301" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B302" s="3">
         <v>1001023696767</v>
       </c>
       <c r="C302" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B303" s="3">
         <v>1001023696767</v>
       </c>
       <c r="C303" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B304" s="3">
         <v>1001023696767</v>
       </c>
       <c r="C304" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B305" s="3">
         <v>1001024976829</v>
       </c>
       <c r="C305" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B306" s="3">
         <v>1001024976829</v>
       </c>
       <c r="C306" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B307" s="3">
         <v>1001022376722</v>
       </c>
       <c r="C307" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B308" s="3">
         <v>1001020846762</v>
       </c>
       <c r="C308" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B309" s="3">
         <v>1001020846762</v>
       </c>
       <c r="C309" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B310" s="3">
         <v>1001020846762</v>
       </c>
       <c r="C310" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B311" s="3">
         <v>1001022656853</v>
       </c>
       <c r="C311" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B312" s="3">
         <v>1001022656853</v>
       </c>
       <c r="C312" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B313" s="3">
         <v>1001022657075</v>
       </c>
       <c r="C313" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E313" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B314" s="3">
         <v>1001022657075</v>
       </c>
       <c r="C314" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E314" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B315" s="3">
         <v>1001022657075</v>
       </c>
       <c r="C315" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B316" s="3">
         <v>1001022657075</v>
       </c>
       <c r="C316" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B317" s="3">
         <v>1001022656948</v>
       </c>
       <c r="C317" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B318" s="3">
         <v>1001022657073</v>
       </c>
       <c r="C318" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B319" s="3">
         <v>1001022657073</v>
       </c>
       <c r="C319" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B320" s="3">
         <v>1001022657073</v>
       </c>
       <c r="C320" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E320" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B321" s="3">
         <v>1001020836759</v>
       </c>
       <c r="C321" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B322" s="3">
         <v>1001020836759</v>
       </c>
       <c r="C322" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B323" s="3">
         <v>1001020836759</v>
       </c>
       <c r="C323" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B324" s="3">
         <v>1001023856870</v>
       </c>
       <c r="C324" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B325" s="3">
         <v>1001013956426</v>
       </c>
       <c r="C325" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B326" s="3">
         <v>1001093345495</v>
       </c>
       <c r="C326" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B327" s="3">
         <v>1001022656868</v>
       </c>
       <c r="C327" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B328" s="3">
         <v>1001022656868</v>
       </c>
       <c r="C328" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B329" s="3">
         <v>1001034065698</v>
       </c>
       <c r="C329" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B330" s="3">
         <v>1001034065698</v>
       </c>
       <c r="C330" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B331" s="3">
         <v>1001034065698</v>
       </c>
       <c r="C331" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B332" s="3">
         <v>1001034065698</v>
       </c>
       <c r="C332" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B333" s="3">
         <v>1001015646861</v>
       </c>
       <c r="C333" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B334" s="3">
         <v>1001015646861</v>
       </c>
       <c r="C334" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B335" s="3">
         <v>1001025176768</v>
       </c>
       <c r="C335" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B336" s="3">
         <v>1001025176768</v>
       </c>
       <c r="C336" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B337" s="3">
         <v>1001025176768</v>
       </c>
       <c r="C337" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B338" s="3">
         <v>1001025486770</v>
       </c>
       <c r="C338" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B339" s="3">
         <v>1001025486770</v>
       </c>
       <c r="C339" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B340" s="3">
         <v>1001025486770</v>
       </c>
       <c r="C340" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B341" s="3">
         <v>1001012816340</v>
       </c>
       <c r="C341" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B342" s="3">
         <v>1001012816340</v>
       </c>
       <c r="C342" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B343" s="3">
         <v>1001012816340</v>
       </c>
       <c r="C343" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B344" s="3">
         <v>1001203146834</v>
       </c>
       <c r="C344" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B345" s="3">
         <v>1001203146834</v>
       </c>
       <c r="C345" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B346" s="3">
         <v>1001203146834</v>
       </c>
       <c r="C346" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B347" s="3">
         <v>1001203146834</v>
       </c>
       <c r="C347" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B348" s="3">
         <v>1001300456788</v>
       </c>
       <c r="C348" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B349" s="3">
         <v>1001022556837</v>
       </c>
       <c r="C349" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B350" s="3">
         <v>1001300516786</v>
       </c>
       <c r="C350" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B351" s="3">
         <v>1001214196459</v>
       </c>
       <c r="C351" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B352" s="3">
         <v>1001092436495</v>
       </c>
       <c r="C352" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B353" s="3">
         <v>1001092436495</v>
       </c>
       <c r="C353" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B354" s="3">
         <v>1001092436495</v>
       </c>
       <c r="C354" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B355" s="3">
         <v>1001025526901</v>
       </c>
       <c r="C355" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B356" s="3">
         <v>1001025546931</v>
       </c>
       <c r="C356" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B357" s="3">
         <v>1001010016324</v>
       </c>
       <c r="C357" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B358" s="3">
         <v>1001010016324</v>
       </c>
       <c r="C358" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B359" s="3">
         <v>1001010016324</v>
       </c>
       <c r="C359" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B360" s="3">
         <v>1001025766909</v>
       </c>
       <c r="C360" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B361" s="3">
         <v>1001025766909</v>
       </c>
       <c r="C361" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B362" s="3">
         <v>1001025766909</v>
       </c>
       <c r="C362" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B363" s="3">
         <v>1001010014558</v>
       </c>
       <c r="C363" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B364" s="3">
         <v>1001010014558</v>
       </c>
       <c r="C364" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B365" s="3">
         <v>1001012596802</v>
       </c>
       <c r="C365" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B366" s="3">
         <v>1001012596802</v>
       </c>
       <c r="C366" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B367" s="3">
         <v>1001012596802</v>
       </c>
       <c r="C367" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B368" s="3">
         <v>1001012596801</v>
       </c>
       <c r="C368" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B369" s="3">
         <v>1001012596801</v>
       </c>
       <c r="C369" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B370" s="3">
         <v>1001012596801</v>
       </c>
       <c r="C370" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B371" s="3">
         <v>1001062353684</v>
       </c>
       <c r="C371" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B372" s="3">
         <v>1001010014555</v>
       </c>
       <c r="C372" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B373" s="3">
         <v>1001083424691</v>
       </c>
       <c r="C373" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B374" s="3">
         <v>1001190765679</v>
       </c>
       <c r="C374" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B375" s="3">
         <v>1001085637187</v>
       </c>
       <c r="C375" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B376" s="3">
         <v>1001085637187</v>
       </c>
       <c r="C376" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E376" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B377" s="3">
         <v>1001020836253</v>
       </c>
       <c r="C377" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B378" s="3">
         <v>1001084226492</v>
       </c>
       <c r="C378" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B379" s="3">
         <v>1001223297092</v>
       </c>
       <c r="C379" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B380" s="3">
         <v>1001223297092</v>
       </c>
       <c r="C380" t="s">
+        <v>620</v>
+      </c>
+      <c r="E380" t="s">
         <v>621</v>
-      </c>
-      <c r="E380" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B381" s="3">
         <v>1001053944786</v>
       </c>
       <c r="C381" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B382" s="3">
         <v>1001010016839</v>
       </c>
       <c r="C382" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B383" s="3">
         <v>1001023857038</v>
       </c>
       <c r="C383" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B384" s="3">
         <v>1001040434903</v>
       </c>
       <c r="C384" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B385" s="3">
         <v>1001080216842</v>
       </c>
       <c r="C385" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B386" s="3">
         <v>1001022467082</v>
       </c>
       <c r="C386" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E386" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B387" s="3">
         <v>1001022467082</v>
       </c>
       <c r="C387" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E387" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B388" s="3">
         <v>1001022467082</v>
       </c>
       <c r="C388" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B389" s="3">
         <v>1001022467082</v>
       </c>
       <c r="C389" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B390" s="3">
         <v>1001022467082</v>
       </c>
       <c r="C390" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B391" s="3">
         <v>1001035277059</v>
       </c>
       <c r="C391" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B392" s="3">
         <v>1001035277059</v>
       </c>
       <c r="C392" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E392" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B393" s="3">
         <v>1001062353680</v>
       </c>
       <c r="C393" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B394" s="3">
         <v>1001061971146</v>
       </c>
       <c r="C394" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B395" s="3">
         <v>1001225636201</v>
       </c>
       <c r="C395" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B396" s="3">
         <v>1001020836724</v>
       </c>
       <c r="C396" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B397" s="3">
         <v>1001095227235</v>
       </c>
       <c r="C397" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B398" s="3">
         <v>1001095227235</v>
       </c>
       <c r="C398" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E398" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B399" s="3">
         <v>1001023857038</v>
       </c>
       <c r="C399" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B400" s="3">
         <v>1001025027040</v>
       </c>
       <c r="C400" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B401" s="3">
         <v>1001223297103</v>
       </c>
       <c r="C401" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B402" s="3">
         <v>1001223297103</v>
       </c>
       <c r="C402" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B403" s="3">
         <v>1001223297103</v>
       </c>
       <c r="C403" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B404" s="3">
         <v>1001223297103</v>
       </c>
       <c r="C404" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B405" s="3">
         <v>1001010032675</v>
       </c>
       <c r="C405" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B406" s="3">
         <v>1001010032675</v>
       </c>
       <c r="C406" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B407" s="3">
         <v>1001035937001</v>
       </c>
       <c r="C407" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B408" s="3">
         <v>1001035937001</v>
       </c>
       <c r="C408" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B409" s="3">
         <v>1001035937001</v>
       </c>
       <c r="C409" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B410" s="3">
         <v>1001084217090</v>
       </c>
       <c r="C410" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E410" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B411" s="3">
         <v>1001084217090</v>
       </c>
       <c r="C411" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B412" s="3">
         <v>1001084217090</v>
       </c>
       <c r="C412" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B413" s="3">
         <v>1001084217090</v>
       </c>
       <c r="C413" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B414" s="3">
         <v>1001022377066</v>
       </c>
       <c r="C414" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B415" s="3">
         <v>1001022377066</v>
       </c>
       <c r="C415" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B416" s="3">
         <v>1001022377066</v>
       </c>
       <c r="C416" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B417" s="3">
         <v>1001010027126</v>
       </c>
       <c r="C417" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B418" s="3">
         <v>1001010027126</v>
       </c>
       <c r="C418" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B419" s="3">
         <v>1001010027125</v>
       </c>
       <c r="C419" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B420" s="3">
         <v>1001223297053</v>
       </c>
       <c r="C420" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B421" s="3">
         <v>1001093316411</v>
       </c>
       <c r="C421" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B422" s="3">
         <v>1001025526962</v>
       </c>
       <c r="C422" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B423" s="3">
         <v>1001025886987</v>
       </c>
       <c r="C423" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B424" s="3">
         <v>1001204447052</v>
       </c>
       <c r="C424" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B425" s="3">
         <v>1001084227087</v>
       </c>
       <c r="C425" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B426" s="3">
         <v>1001203207105</v>
       </c>
       <c r="C426" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B427" s="3">
         <v>1001205447106</v>
       </c>
       <c r="C427" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B428" s="3">
         <v>1001205467107</v>
       </c>
       <c r="C428" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B429" s="3">
         <v>1001015676877</v>
       </c>
       <c r="C429" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B430" s="3">
         <v>1001016366888</v>
       </c>
       <c r="C430" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B431" s="3">
         <v>1001303107241</v>
       </c>
       <c r="C431" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B432" s="3">
         <v>1001013957231</v>
       </c>
       <c r="C432" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B433" s="3">
         <v>1001092687245</v>
       </c>
       <c r="C433" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B434" s="3">
         <v>1001063237147</v>
       </c>
       <c r="C434" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B435" s="3">
         <v>1001066537225</v>
       </c>
       <c r="C435" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B436" s="3">
         <v>1001063097227</v>
       </c>
       <c r="C436" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B437" s="3">
         <v>1001066527226</v>
       </c>
       <c r="C437" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B438" s="3">
         <v>1001022557244</v>
       </c>
       <c r="C438" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B439" s="3">
         <v>1001063237229</v>
       </c>
       <c r="C439" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B440" s="3">
         <v>1001026617250</v>
       </c>
       <c r="C440" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B441" s="3">
         <v>1001022467276</v>
       </c>
       <c r="C441" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B442" s="3">
         <v>1001025767284</v>
       </c>
       <c r="C442" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B443" s="3">
         <v>1001063237150</v>
       </c>
       <c r="C443" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B444" s="3">
         <v>1001025507271</v>
       </c>
       <c r="C444" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B445" s="3">
         <v>1001301777332</v>
       </c>
       <c r="C445" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B446" s="3">
         <v>1001300387157</v>
       </c>
       <c r="C446" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B447" s="3">
         <v>1001016747343</v>
       </c>
       <c r="C447" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B448" s="3">
         <v>1001061973986</v>
       </c>
       <c r="C448" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B449" s="3">
         <v>1001303987333</v>
       </c>
       <c r="C449" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B450" s="3">
         <v>1001065616832</v>
       </c>
       <c r="C450" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B451" s="3">
         <v>1001060677299</v>
       </c>
       <c r="C451" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C449" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C451" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF52D023-65D5-4915-AB6F-AB44B870C835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF23E0EC-0222-4ADB-ABF1-6ED09A578BF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$451</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$452</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="728">
   <si>
     <t>1С</t>
   </si>
@@ -2215,6 +2215,9 @@
   </si>
   <si>
     <t>САЛЯМИ МЕЛКОЗЕРНЕНАЯ с/к в/у 1/120 8шт.</t>
+  </si>
+  <si>
+    <t>7382 САЛЯМИ МЕЛКОЗЕРНЕНАЯ с/к в/у 1/120 8шт.  ОСТАНКИНО</t>
   </si>
 </sst>
 </file>
@@ -2568,11 +2571,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F451"/>
+  <dimension ref="A1:F452"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2901,62 +2904,62 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>727</v>
       </c>
       <c r="B29" s="3">
-        <v>1001061975706</v>
+        <v>1001203117382</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>726</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B30" s="3">
-        <v>1001063145708</v>
+        <v>1001061975706</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B31" s="3">
-        <v>1001022465820</v>
+        <v>1001063145708</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B32" s="3">
-        <v>1001012505851</v>
+        <v>1001022465820</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>294</v>
+        <v>40</v>
       </c>
       <c r="B33" s="3">
-        <v>1001060755931</v>
+        <v>1001012505851</v>
       </c>
       <c r="C33" t="s">
-        <v>420</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="B34" s="3">
         <v>1001060755931</v>
@@ -2967,73 +2970,73 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="3">
-        <v>1001012815997</v>
+        <v>1001060755931</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>420</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36" s="3">
-        <v>1001024906042</v>
+        <v>1001012815997</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B37" s="3">
-        <v>1001024976829</v>
+        <v>1001024906042</v>
       </c>
       <c r="C37" t="s">
-        <v>405</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" s="3">
-        <v>1001220286279</v>
+        <v>1001024976829</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>405</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B39" s="3">
-        <v>1001084216206</v>
+        <v>1001220286279</v>
       </c>
       <c r="C39" t="s">
-        <v>390</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>486</v>
+        <v>50</v>
       </c>
       <c r="B40" s="3">
-        <v>1001022556069</v>
+        <v>1001084216206</v>
       </c>
       <c r="C40" t="s">
-        <v>476</v>
+        <v>390</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>51</v>
+        <v>486</v>
       </c>
       <c r="B41" s="3">
         <v>1001022556069</v>
@@ -3041,55 +3044,55 @@
       <c r="C41" t="s">
         <v>476</v>
       </c>
-      <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" s="3">
-        <v>1001010106325</v>
+        <v>1001022556069</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B43" s="3">
-        <v>1001012486333</v>
+        <v>1001010106325</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B44" s="3">
-        <v>1001012506353</v>
+        <v>1001012486333</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>683</v>
+        <v>57</v>
       </c>
       <c r="B45" s="3">
-        <v>1001304507236</v>
+        <v>1001012506353</v>
       </c>
       <c r="C45" t="s">
-        <v>675</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>208</v>
+        <v>683</v>
       </c>
       <c r="B46" s="3">
         <v>1001304507236</v>
@@ -3097,13 +3100,10 @@
       <c r="C46" t="s">
         <v>675</v>
       </c>
-      <c r="E46" t="s">
-        <v>673</v>
-      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="B47" s="3">
         <v>1001304507236</v>
@@ -3117,32 +3117,32 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B48" s="3">
-        <v>1001303056692</v>
+        <v>1001304507236</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>675</v>
+      </c>
+      <c r="E48" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="B49" s="3">
-        <v>1001303637149</v>
+        <v>1001303056692</v>
       </c>
       <c r="C49" t="s">
-        <v>650</v>
-      </c>
-      <c r="E49" t="s">
-        <v>646</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>665</v>
+        <v>62</v>
       </c>
       <c r="B50" s="3">
         <v>1001303637149</v>
@@ -3150,54 +3150,57 @@
       <c r="C50" t="s">
         <v>650</v>
       </c>
+      <c r="E50" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>63</v>
+        <v>665</v>
       </c>
       <c r="B51" s="3">
-        <v>1001013956426</v>
+        <v>1001303637149</v>
       </c>
       <c r="C51" t="s">
-        <v>434</v>
+        <v>650</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B52" s="3">
-        <v>1001024636438</v>
+        <v>1001013956426</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>434</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B53" s="3">
-        <v>1001234146448</v>
+        <v>1001024636438</v>
       </c>
       <c r="C53" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>295</v>
+        <v>66</v>
       </c>
       <c r="B54" s="3">
-        <v>1001202506453</v>
+        <v>1001234146448</v>
       </c>
       <c r="C54" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>69</v>
+        <v>295</v>
       </c>
       <c r="B55" s="3">
         <v>1001202506453</v>
@@ -3208,227 +3211,227 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B56" s="3">
-        <v>1001201976454</v>
+        <v>1001202506453</v>
       </c>
       <c r="C56" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B57" s="3">
-        <v>1001025176475</v>
+        <v>1001201976454</v>
       </c>
       <c r="C57" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="B58" s="3">
-        <v>1001301876697</v>
+        <v>1001025176475</v>
       </c>
       <c r="C58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="B59" s="3">
-        <v>1001024636517</v>
+        <v>1001301876697</v>
       </c>
       <c r="C59" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B60" s="3">
-        <v>1001031076527</v>
+        <v>1001024636517</v>
       </c>
       <c r="C60" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B61" s="3">
-        <v>1001304506562</v>
+        <v>1001031076527</v>
       </c>
       <c r="C61" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B62" s="3">
-        <v>1001020846563</v>
+        <v>1001304506562</v>
       </c>
       <c r="C62" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B63" s="3">
-        <v>1001020836589</v>
+        <v>1001020846563</v>
       </c>
       <c r="C63" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B64" s="3">
-        <v>6751</v>
+        <v>1001020836589</v>
       </c>
       <c r="C64" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B65" s="3">
-        <v>1001010016592</v>
+        <v>6751</v>
       </c>
       <c r="C65" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B66" s="3">
-        <v>1001010026594</v>
+        <v>1001010016592</v>
       </c>
       <c r="C66" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B67" s="3">
-        <v>1001022296601</v>
+        <v>1001010026594</v>
       </c>
       <c r="C67" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B68" s="3">
-        <v>1001031896648</v>
+        <v>1001022296601</v>
       </c>
       <c r="C68" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B69" s="3">
-        <v>1001035266650</v>
+        <v>1001031896648</v>
       </c>
       <c r="C69" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B70" s="3">
-        <v>1001305256658</v>
+        <v>1001035266650</v>
       </c>
       <c r="C70" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B71" s="3">
-        <v>1001010016593</v>
+        <v>1001305256658</v>
       </c>
       <c r="C71" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B72" s="3">
-        <v>1001010026595</v>
+        <v>1001010016593</v>
       </c>
       <c r="C72" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B73" s="3">
-        <v>1001010036597</v>
+        <v>1001010026595</v>
       </c>
       <c r="C73" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B74" s="3">
-        <v>1001020886646</v>
+        <v>1001010036597</v>
       </c>
       <c r="C74" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>320</v>
+        <v>115</v>
       </c>
       <c r="B75" s="3">
-        <v>1001305306566</v>
+        <v>1001020886646</v>
       </c>
       <c r="C75" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>116</v>
+        <v>320</v>
       </c>
       <c r="B76" s="3">
         <v>1001305306566</v>
@@ -3439,18 +3442,18 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>661</v>
+        <v>116</v>
       </c>
       <c r="B77" s="3">
-        <v>1001300387154</v>
+        <v>1001305306566</v>
       </c>
       <c r="C77" t="s">
-        <v>649</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>121</v>
+        <v>661</v>
       </c>
       <c r="B78" s="3">
         <v>1001300387154</v>
@@ -3458,24 +3461,24 @@
       <c r="C78" t="s">
         <v>649</v>
       </c>
-      <c r="E78" t="s">
-        <v>646</v>
-      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>662</v>
+        <v>121</v>
       </c>
       <c r="B79" s="3">
-        <v>1001303987169</v>
+        <v>1001300387154</v>
       </c>
       <c r="C79" t="s">
-        <v>648</v>
+        <v>649</v>
+      </c>
+      <c r="E79" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>122</v>
+        <v>662</v>
       </c>
       <c r="B80" s="3">
         <v>1001303987169</v>
@@ -3483,26 +3486,26 @@
       <c r="C80" t="s">
         <v>648</v>
       </c>
-      <c r="E80" t="s">
-        <v>646</v>
-      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>238</v>
+        <v>122</v>
       </c>
       <c r="B81" s="3">
-        <v>1001303106773</v>
+        <v>1001303987169</v>
       </c>
       <c r="C81" t="s">
-        <v>343</v>
+        <v>648</v>
+      </c>
+      <c r="E81" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B82" s="4">
+        <v>238</v>
+      </c>
+      <c r="B82" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C82" t="s">
@@ -3511,7 +3514,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>272</v>
+        <v>350</v>
       </c>
       <c r="B83" s="4">
         <v>1001303106773</v>
@@ -3522,9 +3525,9 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B84" s="3">
+        <v>272</v>
+      </c>
+      <c r="B84" s="4">
         <v>1001303106773</v>
       </c>
       <c r="C84" t="s">
@@ -3533,7 +3536,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>389</v>
+        <v>120</v>
       </c>
       <c r="B85" s="3">
         <v>1001303106773</v>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B86" s="3">
         <v>1001303106773</v>
@@ -3555,7 +3558,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B87" s="3">
         <v>1001303106773</v>
@@ -3566,18 +3569,18 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>227</v>
+        <v>384</v>
       </c>
       <c r="B88" s="3">
-        <v>1001012566392</v>
+        <v>1001303106773</v>
       </c>
       <c r="C88" t="s">
-        <v>56</v>
+        <v>343</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>419</v>
+        <v>227</v>
       </c>
       <c r="B89" s="3">
         <v>1001012566392</v>
@@ -3588,7 +3591,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>125</v>
+        <v>419</v>
       </c>
       <c r="B90" s="3">
         <v>1001012566392</v>
@@ -3599,18 +3602,18 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>677</v>
+        <v>125</v>
       </c>
       <c r="B91" s="3">
-        <v>1001302277232</v>
+        <v>1001012566392</v>
       </c>
       <c r="C91" t="s">
-        <v>676</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="B92" s="3">
         <v>1001302277232</v>
@@ -3618,112 +3621,112 @@
       <c r="C92" t="s">
         <v>676</v>
       </c>
-      <c r="E92" t="s">
-        <v>673</v>
-      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>128</v>
+        <v>663</v>
       </c>
       <c r="B93" s="3">
-        <v>1001012426268</v>
+        <v>1001302277232</v>
       </c>
       <c r="C93" t="s">
-        <v>127</v>
+        <v>676</v>
+      </c>
+      <c r="E93" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B94" s="3">
-        <v>1001024906041</v>
+        <v>1001012426268</v>
       </c>
       <c r="C94" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B95" s="3">
-        <v>1001011086247</v>
+        <v>1001024906041</v>
       </c>
       <c r="C95" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B96" s="3">
-        <v>1001014486158</v>
+        <v>1001011086247</v>
       </c>
       <c r="C96" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B97" s="3">
-        <v>1001015356259</v>
+        <v>1001014486158</v>
       </c>
       <c r="C97" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B98" s="3">
-        <v>1001012816716</v>
+        <v>1001015356259</v>
       </c>
       <c r="C98" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>325</v>
+        <v>157</v>
       </c>
       <c r="B99" s="3">
-        <v>1001020966227</v>
+        <v>1001012816716</v>
       </c>
       <c r="C99" t="s">
-        <v>324</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>134</v>
+        <v>325</v>
       </c>
       <c r="B100" s="3">
         <v>1001020966227</v>
       </c>
       <c r="C100" t="s">
-        <v>135</v>
+        <v>324</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>225</v>
+        <v>134</v>
       </c>
       <c r="B101" s="3">
-        <v>1001022726303</v>
+        <v>1001020966227</v>
       </c>
       <c r="C101" t="s">
-        <v>257</v>
+        <v>135</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="B102" s="3">
         <v>1001022726303</v>
@@ -3734,7 +3737,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>342</v>
+        <v>256</v>
       </c>
       <c r="B103" s="3">
         <v>1001022726303</v>
@@ -3745,65 +3748,62 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>158</v>
+        <v>342</v>
       </c>
       <c r="B104" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C104" t="s">
-        <v>160</v>
+        <v>257</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="B105" s="3">
-        <v>1001022466726</v>
+        <v>1001022726303</v>
       </c>
       <c r="C105" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="B106" s="3">
-        <v>1001020966144</v>
+        <v>1001022466726</v>
       </c>
       <c r="C106" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="B107" s="3">
-        <v>1001022376722</v>
+        <v>1001020966144</v>
       </c>
       <c r="C107" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>572</v>
+        <v>126</v>
       </c>
       <c r="B108" s="3">
-        <v>1001022377070</v>
+        <v>1001022376722</v>
       </c>
       <c r="C108" t="s">
-        <v>606</v>
-      </c>
-      <c r="E108" t="s">
-        <v>621</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B109" s="3">
         <v>1001022377070</v>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>637</v>
+        <v>570</v>
       </c>
       <c r="B110" s="3">
         <v>1001022377070</v>
@@ -3825,10 +3825,13 @@
       <c r="C110" t="s">
         <v>606</v>
       </c>
+      <c r="E110" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>605</v>
+        <v>637</v>
       </c>
       <c r="B111" s="3">
         <v>1001022377070</v>
@@ -3839,29 +3842,29 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>139</v>
+        <v>605</v>
       </c>
       <c r="B112" s="3">
-        <v>1001022376955</v>
+        <v>1001022377070</v>
       </c>
       <c r="C112" t="s">
-        <v>564</v>
+        <v>606</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>249</v>
+        <v>139</v>
       </c>
       <c r="B113" s="3">
-        <v>1001022246661</v>
+        <v>1001022376955</v>
       </c>
       <c r="C113" t="s">
-        <v>250</v>
+        <v>564</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>321</v>
+        <v>249</v>
       </c>
       <c r="B114" s="3">
         <v>1001022246661</v>
@@ -3872,175 +3875,172 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>138</v>
+        <v>321</v>
       </c>
       <c r="B115" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C115" t="s">
-        <v>140</v>
+        <v>250</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B116" s="3">
-        <v>1001022246713</v>
+        <v>1001022246661</v>
       </c>
       <c r="C116" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B117" s="3">
-        <v>1001025166241</v>
+        <v>1001022246713</v>
       </c>
       <c r="C117" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B118" s="3">
-        <v>6606</v>
+        <v>1001025166241</v>
       </c>
       <c r="C118" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="B119" s="3">
-        <v>1001035326217</v>
+        <v>6606</v>
       </c>
       <c r="C119" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B120" s="3">
-        <v>1001303636301</v>
+        <v>1001035326217</v>
       </c>
       <c r="C120" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="B121" s="3">
-        <v>1001303636302</v>
+        <v>1001303636301</v>
       </c>
       <c r="C121" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="B122" s="3">
-        <v>1001305196215</v>
+        <v>1001303636302</v>
       </c>
       <c r="C122" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B123" s="3">
-        <v>1001301876212</v>
+        <v>1001305196215</v>
       </c>
       <c r="C123" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B124" s="3">
-        <v>1001301876213</v>
+        <v>1001301876212</v>
       </c>
       <c r="C124" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B125" s="3">
-        <v>1001303636302</v>
+        <v>1001301876213</v>
       </c>
       <c r="C125" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B126" s="3">
-        <v>6645</v>
+        <v>1001303636302</v>
       </c>
       <c r="C126" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B127" s="3">
-        <v>1001225416228</v>
+        <v>6645</v>
       </c>
       <c r="C127" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B128" s="3">
-        <v>6225</v>
+        <v>1001225416228</v>
       </c>
       <c r="C128" t="s">
-        <v>276</v>
+        <v>165</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B129" s="3">
-        <v>1001022377066</v>
+        <v>6225</v>
       </c>
       <c r="C129" t="s">
-        <v>596</v>
-      </c>
-      <c r="E129" t="s">
-        <v>621</v>
+        <v>276</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="B130" s="3">
         <v>1001022377066</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="B131" s="3">
         <v>1001022377066</v>
@@ -4068,32 +4068,32 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B132" s="3">
-        <v>3297</v>
+        <v>1001022377066</v>
       </c>
       <c r="C132" t="s">
-        <v>170</v>
+        <v>596</v>
+      </c>
+      <c r="E132" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>315</v>
+        <v>169</v>
       </c>
       <c r="B133" s="3">
-        <v>1001022467080</v>
+        <v>3297</v>
       </c>
       <c r="C133" t="s">
-        <v>598</v>
-      </c>
-      <c r="E133" t="s">
-        <v>621</v>
+        <v>170</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>173</v>
+        <v>315</v>
       </c>
       <c r="B134" s="3">
         <v>1001022467080</v>
@@ -4107,7 +4107,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>640</v>
+        <v>173</v>
       </c>
       <c r="B135" s="3">
         <v>1001022467080</v>
@@ -4115,10 +4115,13 @@
       <c r="C135" t="s">
         <v>598</v>
       </c>
+      <c r="E135" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>617</v>
+        <v>640</v>
       </c>
       <c r="B136" s="3">
         <v>1001022467080</v>
@@ -4129,7 +4132,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="B137" s="3">
         <v>1001022467080</v>
@@ -4140,40 +4143,40 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>174</v>
+        <v>597</v>
       </c>
       <c r="B138" s="3">
-        <v>1001021966602</v>
+        <v>1001022467080</v>
       </c>
       <c r="C138" t="s">
-        <v>287</v>
+        <v>598</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B139" s="3">
-        <v>6233</v>
+        <v>1001021966602</v>
       </c>
       <c r="C139" t="s">
-        <v>175</v>
+        <v>287</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>267</v>
+        <v>176</v>
       </c>
       <c r="B140" s="3">
-        <v>1001012816341</v>
+        <v>6233</v>
       </c>
       <c r="C140" t="s">
-        <v>443</v>
+        <v>175</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>488</v>
+        <v>267</v>
       </c>
       <c r="B141" s="3">
         <v>1001012816341</v>
@@ -4184,7 +4187,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B142" s="3">
         <v>1001012816341</v>
@@ -4195,7 +4198,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>177</v>
+        <v>491</v>
       </c>
       <c r="B143" s="3">
         <v>1001012816341</v>
@@ -4206,54 +4209,51 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B144" s="3">
-        <v>6750</v>
+        <v>1001012816341</v>
       </c>
       <c r="C144" t="s">
-        <v>88</v>
+        <v>443</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B145" s="3">
-        <v>6751</v>
+        <v>6750</v>
       </c>
       <c r="C145" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B146" s="3">
-        <v>5982</v>
+        <v>6751</v>
       </c>
       <c r="C146" t="s">
-        <v>181</v>
+        <v>90</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>553</v>
+        <v>180</v>
       </c>
       <c r="B147" s="3">
-        <v>1001022657074</v>
+        <v>5982</v>
       </c>
       <c r="C147" t="s">
-        <v>623</v>
-      </c>
-      <c r="E147" t="s">
-        <v>621</v>
+        <v>181</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>455</v>
+        <v>553</v>
       </c>
       <c r="B148" s="3">
         <v>1001022657074</v>
@@ -4267,7 +4267,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>644</v>
+        <v>455</v>
       </c>
       <c r="B149" s="3">
         <v>1001022657074</v>
@@ -4275,35 +4275,38 @@
       <c r="C149" t="s">
         <v>623</v>
       </c>
+      <c r="E149" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>182</v>
+        <v>644</v>
       </c>
       <c r="B150" s="3">
-        <v>1001022656854</v>
+        <v>1001022657074</v>
       </c>
       <c r="C150" t="s">
-        <v>433</v>
+        <v>623</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B151" s="3">
-        <v>1001094966025</v>
+        <v>1001022656854</v>
       </c>
       <c r="C151" t="s">
-        <v>184</v>
+        <v>433</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B152" s="3">
-        <v>6025</v>
+        <v>1001094966025</v>
       </c>
       <c r="C152" t="s">
         <v>184</v>
@@ -4311,21 +4314,21 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B153" s="3">
-        <v>6221</v>
+        <v>6025</v>
       </c>
       <c r="C153" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B154" s="3">
-        <v>1001205376221</v>
+        <v>6221</v>
       </c>
       <c r="C154" t="s">
         <v>186</v>
@@ -4333,29 +4336,29 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B155" s="3">
-        <v>1001022373812</v>
+        <v>1001205376221</v>
       </c>
       <c r="C155" t="s">
-        <v>3</v>
+        <v>186</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B156" s="3">
-        <v>1001100606827</v>
+        <v>1001022373812</v>
       </c>
       <c r="C156" t="s">
-        <v>332</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>344</v>
+        <v>192</v>
       </c>
       <c r="B157" s="3">
         <v>1001100606827</v>
@@ -4366,18 +4369,18 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>193</v>
+        <v>344</v>
       </c>
       <c r="B158" s="3">
-        <v>1001100616826</v>
+        <v>1001100606827</v>
       </c>
       <c r="C158" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>345</v>
+        <v>193</v>
       </c>
       <c r="B159" s="3">
         <v>1001100616826</v>
@@ -4388,18 +4391,18 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>194</v>
+        <v>345</v>
       </c>
       <c r="B160" s="3">
-        <v>1001100626828</v>
+        <v>1001100616826</v>
       </c>
       <c r="C160" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>346</v>
+        <v>194</v>
       </c>
       <c r="B161" s="3">
         <v>1001100626828</v>
@@ -4410,62 +4413,62 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>195</v>
+        <v>346</v>
       </c>
       <c r="B162" s="3">
-        <v>1001035026308</v>
+        <v>1001100626828</v>
       </c>
       <c r="C162" t="s">
-        <v>196</v>
+        <v>334</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>557</v>
+        <v>195</v>
       </c>
       <c r="B163" s="3">
-        <v>1001014486159</v>
+        <v>1001035026308</v>
       </c>
       <c r="C163" t="s">
-        <v>558</v>
+        <v>196</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>197</v>
+        <v>557</v>
       </c>
       <c r="B164" s="3">
         <v>1001014486159</v>
       </c>
       <c r="C164" t="s">
-        <v>198</v>
+        <v>558</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B165" s="3">
-        <v>1001035326217</v>
+        <v>1001014486159</v>
       </c>
       <c r="C165" t="s">
-        <v>291</v>
+        <v>198</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>506</v>
+        <v>199</v>
       </c>
       <c r="B166" s="3">
-        <v>1001012426220</v>
+        <v>1001035326217</v>
       </c>
       <c r="C166" t="s">
-        <v>201</v>
+        <v>291</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>720</v>
+        <v>506</v>
       </c>
       <c r="B167" s="3">
         <v>1001012426220</v>
@@ -4476,7 +4479,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>200</v>
+        <v>720</v>
       </c>
       <c r="B168" s="3">
         <v>1001012426220</v>
@@ -4487,227 +4490,227 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B169" s="3">
-        <v>1001022466236</v>
+        <v>1001012426220</v>
       </c>
       <c r="C169" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B170" s="3">
-        <v>1001021966602</v>
+        <v>1001022466236</v>
       </c>
       <c r="C170" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B171" s="3">
-        <v>1001022296656</v>
+        <v>1001021966602</v>
       </c>
       <c r="C171" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B172" s="3">
-        <v>1001301876697</v>
+        <v>1001022296656</v>
       </c>
       <c r="C172" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B173" s="3">
-        <v>1001022246713</v>
+        <v>1001301876697</v>
       </c>
       <c r="C173" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B174" s="3">
-        <v>1001020846751</v>
+        <v>1001022246713</v>
       </c>
       <c r="C174" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B175" s="3">
-        <v>1001022725819</v>
+        <v>1001020846751</v>
       </c>
       <c r="C175" t="s">
-        <v>217</v>
+        <v>90</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B176" s="3">
-        <v>1001012825337</v>
+        <v>1001022725819</v>
       </c>
       <c r="C176" t="s">
-        <v>27</v>
+        <v>217</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B177" s="3">
-        <v>1001012815336</v>
+        <v>1001012825337</v>
       </c>
       <c r="C177" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B178" s="3">
-        <v>1001234146448</v>
+        <v>1001012815336</v>
       </c>
       <c r="C178" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B179" s="3">
-        <v>1001022725819</v>
+        <v>1001234146448</v>
       </c>
       <c r="C179" t="s">
-        <v>217</v>
+        <v>67</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B180" s="3">
-        <v>1001092676027</v>
+        <v>1001022725819</v>
       </c>
       <c r="C180" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B181" s="3">
-        <v>1001301876213</v>
+        <v>1001092676027</v>
       </c>
       <c r="C181" t="s">
-        <v>81</v>
+        <v>223</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B182" s="3">
-        <v>1001035026308</v>
+        <v>1001301876213</v>
       </c>
       <c r="C182" t="s">
-        <v>409</v>
+        <v>81</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B183" s="3">
-        <v>1001234146448</v>
+        <v>1001035026308</v>
       </c>
       <c r="C183" t="s">
-        <v>67</v>
+        <v>409</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B184" s="3">
-        <v>1001201976454</v>
+        <v>1001234146448</v>
       </c>
       <c r="C184" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B185" s="3">
-        <v>1001025176475</v>
+        <v>1001201976454</v>
       </c>
       <c r="C185" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B186" s="3">
-        <v>1001012456498</v>
+        <v>1001025176475</v>
       </c>
       <c r="C186" t="s">
-        <v>233</v>
+        <v>74</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B187" s="3">
-        <v>1001010036596</v>
+        <v>1001012456498</v>
       </c>
       <c r="C187" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>567</v>
+        <v>234</v>
       </c>
       <c r="B188" s="3">
-        <v>1001033856608</v>
+        <v>1001010036596</v>
       </c>
       <c r="C188" t="s">
-        <v>559</v>
+        <v>235</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="B189" s="3">
         <v>1001033856608</v>
@@ -4718,18 +4721,18 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B190" s="3">
-        <v>1001033856609</v>
+        <v>1001033856608</v>
       </c>
       <c r="C190" t="s">
-        <v>237</v>
+        <v>559</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>236</v>
+        <v>568</v>
       </c>
       <c r="B191" s="3">
         <v>1001033856609</v>
@@ -4740,337 +4743,337 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B192" s="3">
-        <v>1001093345495</v>
+        <v>1001033856609</v>
       </c>
       <c r="C192" t="s">
-        <v>444</v>
+        <v>237</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B193" s="3">
-        <v>6550</v>
+        <v>1001093345495</v>
       </c>
       <c r="C193" t="s">
-        <v>242</v>
+        <v>444</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B194" s="3">
-        <v>1001010113248</v>
+        <v>6550</v>
       </c>
       <c r="C194" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>417</v>
+        <v>243</v>
       </c>
       <c r="B195" s="3">
-        <v>1001063926780</v>
+        <v>1001010113248</v>
       </c>
       <c r="C195" t="s">
-        <v>418</v>
+        <v>244</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>245</v>
+        <v>417</v>
       </c>
       <c r="B196" s="3">
-        <v>6586</v>
+        <v>1001063926780</v>
       </c>
       <c r="C196" t="s">
-        <v>246</v>
+        <v>418</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B197" s="3">
-        <v>1001303636467</v>
+        <v>6586</v>
       </c>
       <c r="C197" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B198" s="3">
-        <v>1001304496701</v>
+        <v>1001303636467</v>
       </c>
       <c r="C198" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B199" s="3">
-        <v>6144</v>
+        <v>1001304496701</v>
       </c>
       <c r="C199" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B200" s="3">
-        <v>1001022725819</v>
+        <v>6144</v>
       </c>
       <c r="C200" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B201" s="3">
-        <v>1001022373812</v>
+        <v>1001022725819</v>
       </c>
       <c r="C201" t="s">
-        <v>3</v>
+        <v>217</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B202" s="3">
-        <v>1001024906062</v>
+        <v>1001022373812</v>
       </c>
       <c r="C202" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B203" s="3">
-        <v>1001300386683</v>
+        <v>1001024906062</v>
       </c>
       <c r="C203" t="s">
-        <v>76</v>
+        <v>260</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B204" s="3">
-        <v>1001303986689</v>
+        <v>1001300386683</v>
       </c>
       <c r="C204" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B205" s="3">
-        <v>1001303056692</v>
+        <v>1001303986689</v>
       </c>
       <c r="C205" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B206" s="3">
-        <v>1001301876697</v>
+        <v>1001303056692</v>
       </c>
       <c r="C206" t="s">
-        <v>210</v>
+        <v>60</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B207" s="3">
-        <v>1001302276666</v>
+        <v>1001301876697</v>
       </c>
       <c r="C207" t="s">
-        <v>61</v>
+        <v>210</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B208" s="3">
-        <v>1001012634574</v>
+        <v>1001302276666</v>
       </c>
       <c r="C208" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B209" s="3">
-        <v>1001092485452</v>
+        <v>1001012634574</v>
       </c>
       <c r="C209" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B210" s="3">
-        <v>1001020966144</v>
+        <v>1001092485452</v>
       </c>
       <c r="C210" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B211" s="3">
-        <v>6586</v>
+        <v>1001020966144</v>
       </c>
       <c r="C211" t="s">
-        <v>246</v>
+        <v>149</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B212" s="3">
-        <v>1001304496701</v>
+        <v>6586</v>
       </c>
       <c r="C212" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B213" s="3">
-        <v>1001063655015</v>
+        <v>1001304496701</v>
       </c>
       <c r="C213" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B214" s="3">
-        <v>1001060763287</v>
+        <v>1001063655015</v>
       </c>
       <c r="C214" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B215" s="3">
-        <v>1001225416228</v>
+        <v>1001060763287</v>
       </c>
       <c r="C215" t="s">
-        <v>165</v>
+        <v>278</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B216" s="3">
-        <v>1001032736550</v>
+        <v>1001225416228</v>
       </c>
       <c r="C216" t="s">
-        <v>242</v>
+        <v>165</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B217" s="3">
-        <v>6758</v>
+        <v>1001032736550</v>
       </c>
       <c r="C217" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B218" s="3">
-        <v>1001020965976</v>
+        <v>6758</v>
       </c>
       <c r="C218" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B219" s="3">
-        <v>1001215576586</v>
+        <v>1001020965976</v>
       </c>
       <c r="C219" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B220" s="3">
-        <v>1001094896026</v>
+        <v>1001215576586</v>
       </c>
       <c r="C220" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>496</v>
+        <v>288</v>
       </c>
       <c r="B221" s="3">
-        <v>1001215576586</v>
+        <v>1001094896026</v>
       </c>
       <c r="C221" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>290</v>
+        <v>496</v>
       </c>
       <c r="B222" s="3">
         <v>1001215576586</v>
@@ -5081,87 +5084,84 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B223" s="3">
-        <v>1001092436470</v>
+        <v>1001215576586</v>
       </c>
       <c r="C223" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B224" s="3">
-        <v>1001203146555</v>
+        <v>1001092436470</v>
       </c>
       <c r="C224" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B225" s="3">
-        <v>1001014765992</v>
+        <v>1001203146555</v>
       </c>
       <c r="C225" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B226" s="3">
         <v>1001014765992</v>
       </c>
       <c r="C226" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B227" s="3">
-        <v>1001014765993</v>
+        <v>1001014765992</v>
       </c>
       <c r="C227" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B228" s="3">
-        <v>1001025166776</v>
+        <v>1001014765993</v>
       </c>
       <c r="C228" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="B229" s="3">
-        <v>1001025507077</v>
+        <v>1001025166776</v>
       </c>
       <c r="C229" t="s">
-        <v>600</v>
-      </c>
-      <c r="E229" t="s">
-        <v>621</v>
+        <v>303</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="B230" s="3">
         <v>1001025507077</v>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>639</v>
+        <v>304</v>
       </c>
       <c r="B231" s="3">
         <v>1001025507077</v>
@@ -5183,10 +5183,13 @@
       <c r="C231" t="s">
         <v>600</v>
       </c>
+      <c r="E231" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>618</v>
+        <v>639</v>
       </c>
       <c r="B232" s="3">
         <v>1001025507077</v>
@@ -5197,7 +5200,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>599</v>
+        <v>618</v>
       </c>
       <c r="B233" s="3">
         <v>1001025507077</v>
@@ -5208,18 +5211,18 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>326</v>
+        <v>599</v>
       </c>
       <c r="B234" s="3">
-        <v>1001025546822</v>
+        <v>1001025507077</v>
       </c>
       <c r="C234" t="s">
-        <v>306</v>
+        <v>600</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B235" s="3">
         <v>1001025546822</v>
@@ -5230,62 +5233,62 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B236" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C236" t="s">
-        <v>551</v>
+        <v>306</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="B237" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C237" t="s">
-        <v>306</v>
+        <v>551</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B238" s="3">
-        <v>1001024976616</v>
+        <v>1001025546822</v>
       </c>
       <c r="C238" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B239" s="3">
-        <v>1001010855247</v>
+        <v>1001024976616</v>
       </c>
       <c r="C239" t="s">
-        <v>23</v>
+        <v>309</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>388</v>
+        <v>311</v>
       </c>
       <c r="B240" s="3">
-        <v>1001223296919</v>
+        <v>1001010855247</v>
       </c>
       <c r="C240" t="s">
-        <v>391</v>
+        <v>23</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>68</v>
+        <v>388</v>
       </c>
       <c r="B241" s="3">
         <v>1001223296919</v>
@@ -5296,7 +5299,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>229</v>
+        <v>68</v>
       </c>
       <c r="B242" s="3">
         <v>1001223296919</v>
@@ -5307,29 +5310,29 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>459</v>
+        <v>229</v>
       </c>
       <c r="B243" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C243" t="s">
-        <v>475</v>
+        <v>391</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="B244" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C244" t="s">
-        <v>391</v>
+        <v>475</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>312</v>
+        <v>481</v>
       </c>
       <c r="B245" s="3">
         <v>1001223296919</v>
@@ -5340,62 +5343,62 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B246" s="3">
-        <v>1001014765993</v>
+        <v>1001223296919</v>
       </c>
       <c r="C246" t="s">
-        <v>300</v>
+        <v>391</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B247" s="3">
-        <v>1001025166776</v>
+        <v>1001014765993</v>
       </c>
       <c r="C247" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B248" s="3">
-        <v>1001025526778</v>
+        <v>1001025166776</v>
       </c>
       <c r="C248" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B249" s="3">
-        <v>1001304236685</v>
+        <v>1001025526778</v>
       </c>
       <c r="C249" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="B250" s="3">
-        <v>1001015496769</v>
+        <v>1001304236685</v>
       </c>
       <c r="C250" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="B251" s="3">
         <v>1001015496769</v>
@@ -5406,84 +5409,84 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B252" s="3">
-        <v>1001014766798</v>
+        <v>1001015496769</v>
       </c>
       <c r="C252" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B253" s="3">
-        <v>1001015026797</v>
+        <v>1001014766798</v>
       </c>
       <c r="C253" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B254" s="3">
-        <v>1001205386222</v>
+        <v>1001015026797</v>
       </c>
       <c r="C254" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B255" s="3">
-        <v>1001092675224</v>
+        <v>1001205386222</v>
       </c>
       <c r="C255" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B256" s="3">
-        <v>1001225406223</v>
+        <v>1001092675224</v>
       </c>
       <c r="C256" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B257" s="3">
-        <v>1001300366790</v>
+        <v>1001225406223</v>
       </c>
       <c r="C257" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>477</v>
+        <v>351</v>
       </c>
       <c r="B258" s="3">
-        <v>1001304096792</v>
+        <v>1001300366790</v>
       </c>
       <c r="C258" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>353</v>
+        <v>477</v>
       </c>
       <c r="B259" s="3">
         <v>1001304096792</v>
@@ -5494,29 +5497,29 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B260" s="3">
-        <v>1001303636793</v>
+        <v>1001304096792</v>
       </c>
       <c r="C260" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>681</v>
+        <v>354</v>
       </c>
       <c r="B261" s="3">
-        <v>1001303637131</v>
+        <v>1001303636793</v>
       </c>
       <c r="C261" t="s">
-        <v>669</v>
+        <v>365</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>399</v>
+        <v>681</v>
       </c>
       <c r="B262" s="3">
         <v>1001303637131</v>
@@ -5524,13 +5527,10 @@
       <c r="C262" t="s">
         <v>669</v>
       </c>
-      <c r="E262" t="s">
-        <v>670</v>
-      </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>497</v>
+        <v>399</v>
       </c>
       <c r="B263" s="3">
         <v>1001303637131</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>355</v>
+        <v>497</v>
       </c>
       <c r="B264" s="3">
         <v>1001303637131</v>
@@ -5558,51 +5558,54 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B265" s="3">
-        <v>1001302596795</v>
+        <v>1001303637131</v>
       </c>
       <c r="C265" t="s">
-        <v>366</v>
+        <v>669</v>
+      </c>
+      <c r="E265" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B266" s="3">
-        <v>1001302596796</v>
+        <v>1001302596795</v>
       </c>
       <c r="C266" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B267" s="3">
-        <v>1001300456804</v>
+        <v>1001302596796</v>
       </c>
       <c r="C267" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>446</v>
+        <v>358</v>
       </c>
       <c r="B268" s="3">
-        <v>1001300366806</v>
+        <v>1001300456804</v>
       </c>
       <c r="C268" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>359</v>
+        <v>446</v>
       </c>
       <c r="B269" s="3">
         <v>1001300366806</v>
@@ -5613,62 +5616,62 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B270" s="3">
-        <v>1001300516803</v>
+        <v>1001300366806</v>
       </c>
       <c r="C270" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B271" s="3">
-        <v>1001300366807</v>
+        <v>1001300516803</v>
       </c>
       <c r="C271" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="B272" s="3">
         <v>1001300366807</v>
       </c>
       <c r="C272" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B273" s="3">
-        <v>1001300516785</v>
+        <v>1001300366807</v>
       </c>
       <c r="C273" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>537</v>
+        <v>374</v>
       </c>
       <c r="B274" s="3">
-        <v>1001300456787</v>
+        <v>1001300516785</v>
       </c>
       <c r="C274" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="B275" s="3">
         <v>1001300456787</v>
@@ -5679,7 +5682,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>376</v>
+        <v>552</v>
       </c>
       <c r="B276" s="3">
         <v>1001300456787</v>
@@ -5690,73 +5693,73 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B277" s="3">
-        <v>1001303636793</v>
+        <v>1001300456787</v>
       </c>
       <c r="C277" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B278" s="3">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="C278" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B279" s="3">
-        <v>1001012486332</v>
+        <v>1001302596795</v>
       </c>
       <c r="C279" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B280" s="3">
-        <v>1001012566345</v>
+        <v>1001012486332</v>
       </c>
       <c r="C280" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B281" s="3">
-        <v>1001031076528</v>
+        <v>1001012566345</v>
       </c>
       <c r="C281" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="B282" s="3">
-        <v>1001020836761</v>
+        <v>1001031076528</v>
       </c>
       <c r="C282" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B283" s="3">
         <v>1001020836761</v>
@@ -5767,7 +5770,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>392</v>
+        <v>421</v>
       </c>
       <c r="B284" s="3">
         <v>1001020836761</v>
@@ -5778,18 +5781,18 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="B285" s="3">
-        <v>1001020846764</v>
+        <v>1001020836761</v>
       </c>
       <c r="C285" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B286" s="3">
         <v>1001020846764</v>
@@ -5800,7 +5803,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>394</v>
+        <v>422</v>
       </c>
       <c r="B287" s="3">
         <v>1001020846764</v>
@@ -5811,18 +5814,18 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>493</v>
+        <v>394</v>
       </c>
       <c r="B288" s="3">
-        <v>1001300366790</v>
+        <v>1001020846764</v>
       </c>
       <c r="C288" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>396</v>
+        <v>493</v>
       </c>
       <c r="B289" s="3">
         <v>1001300366790</v>
@@ -5833,18 +5836,18 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="B290" s="3">
-        <v>1001304096791</v>
+        <v>1001300366790</v>
       </c>
       <c r="C290" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>468</v>
+        <v>352</v>
       </c>
       <c r="B291" s="3">
         <v>1001304096791</v>
@@ -5855,7 +5858,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>397</v>
+        <v>468</v>
       </c>
       <c r="B292" s="3">
         <v>1001304096791</v>
@@ -5866,84 +5869,84 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B293" s="3">
-        <v>1001303636793</v>
+        <v>1001304096791</v>
       </c>
       <c r="C293" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B294" s="3">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="C294" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B295" s="3">
-        <v>1001300516803</v>
+        <v>1001302596795</v>
       </c>
       <c r="C295" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B296" s="3">
-        <v>1001300456804</v>
+        <v>1001300516803</v>
       </c>
       <c r="C296" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B297" s="3">
-        <v>1001300366807</v>
+        <v>1001300456804</v>
       </c>
       <c r="C297" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B298" s="3">
-        <v>1001302596796</v>
+        <v>1001300366807</v>
       </c>
       <c r="C298" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>452</v>
+        <v>404</v>
       </c>
       <c r="B299" s="3">
-        <v>1001023696765</v>
+        <v>1001302596796</v>
       </c>
       <c r="C299" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="B300" s="3">
         <v>1001023696765</v>
@@ -5954,7 +5957,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>406</v>
+        <v>471</v>
       </c>
       <c r="B301" s="3">
         <v>1001023696765</v>
@@ -5965,18 +5968,18 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="B302" s="3">
-        <v>1001023696767</v>
+        <v>1001023696765</v>
       </c>
       <c r="C302" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B303" s="3">
         <v>1001023696767</v>
@@ -5987,7 +5990,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="B304" s="3">
         <v>1001023696767</v>
@@ -5998,18 +6001,18 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B305" s="3">
-        <v>1001024976829</v>
+        <v>1001023696767</v>
       </c>
       <c r="C305" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B306" s="3">
         <v>1001024976829</v>
@@ -6020,29 +6023,29 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="B307" s="3">
-        <v>1001022376722</v>
+        <v>1001024976829</v>
       </c>
       <c r="C307" t="s">
-        <v>124</v>
+        <v>405</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="B308" s="3">
-        <v>1001020846762</v>
+        <v>1001022376722</v>
       </c>
       <c r="C308" t="s">
-        <v>428</v>
+        <v>124</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="B309" s="3">
         <v>1001020846762</v>
@@ -6053,7 +6056,7 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>427</v>
+        <v>470</v>
       </c>
       <c r="B310" s="3">
         <v>1001020846762</v>
@@ -6064,18 +6067,18 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>129</v>
+        <v>427</v>
       </c>
       <c r="B311" s="3">
-        <v>1001022656853</v>
+        <v>1001020846762</v>
       </c>
       <c r="C311" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>492</v>
+        <v>129</v>
       </c>
       <c r="B312" s="3">
         <v>1001022656853</v>
@@ -6086,21 +6089,18 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>571</v>
+        <v>492</v>
       </c>
       <c r="B313" s="3">
-        <v>1001022657075</v>
+        <v>1001022656853</v>
       </c>
       <c r="C313" t="s">
-        <v>602</v>
-      </c>
-      <c r="E313" t="s">
-        <v>621</v>
+        <v>431</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B314" s="3">
         <v>1001022657075</v>
@@ -6114,7 +6114,7 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>638</v>
+        <v>566</v>
       </c>
       <c r="B315" s="3">
         <v>1001022657075</v>
@@ -6122,10 +6122,13 @@
       <c r="C315" t="s">
         <v>602</v>
       </c>
+      <c r="E315" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>601</v>
+        <v>638</v>
       </c>
       <c r="B316" s="3">
         <v>1001022657075</v>
@@ -6136,29 +6139,29 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>430</v>
+        <v>601</v>
       </c>
       <c r="B317" s="3">
-        <v>1001022656948</v>
+        <v>1001022657075</v>
       </c>
       <c r="C317" t="s">
-        <v>563</v>
+        <v>602</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>607</v>
+        <v>430</v>
       </c>
       <c r="B318" s="3">
-        <v>1001022657073</v>
+        <v>1001022656948</v>
       </c>
       <c r="C318" t="s">
-        <v>608</v>
+        <v>563</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>629</v>
+        <v>607</v>
       </c>
       <c r="B319" s="3">
         <v>1001022657073</v>
@@ -6169,7 +6172,7 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>436</v>
+        <v>629</v>
       </c>
       <c r="B320" s="3">
         <v>1001022657073</v>
@@ -6177,24 +6180,24 @@
       <c r="C320" t="s">
         <v>608</v>
       </c>
-      <c r="E320" t="s">
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B321" s="3">
+        <v>1001022657073</v>
+      </c>
+      <c r="C321" t="s">
+        <v>608</v>
+      </c>
+      <c r="E321" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="2" t="s">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="B321" s="3">
-        <v>1001020836759</v>
-      </c>
-      <c r="C321" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="B322" s="3">
         <v>1001020836759</v>
@@ -6203,9 +6206,9 @@
         <v>438</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>437</v>
+        <v>469</v>
       </c>
       <c r="B323" s="3">
         <v>1001020836759</v>
@@ -6214,53 +6217,53 @@
         <v>438</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B324" s="3">
+        <v>1001020836759</v>
+      </c>
+      <c r="C324" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B324" s="3">
+      <c r="B325" s="3">
         <v>1001023856870</v>
       </c>
-      <c r="C324" t="s">
+      <c r="C325" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="2" t="s">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B325" s="3">
+      <c r="B326" s="3">
         <v>1001013956426</v>
       </c>
-      <c r="C325" t="s">
+      <c r="C326" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" s="2" t="s">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B326" s="3">
+      <c r="B327" s="3">
         <v>1001093345495</v>
       </c>
-      <c r="C326" t="s">
+      <c r="C327" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="2" t="s">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="B327" s="3">
-        <v>1001022656868</v>
-      </c>
-      <c r="C327" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" s="2" t="s">
-        <v>457</v>
       </c>
       <c r="B328" s="3">
         <v>1001022656868</v>
@@ -6269,20 +6272,20 @@
         <v>458</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B329" s="3">
+        <v>1001022656868</v>
+      </c>
+      <c r="C329" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B329" s="3">
-        <v>1001034065698</v>
-      </c>
-      <c r="C329" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="B330" s="3">
         <v>1001034065698</v>
@@ -6291,9 +6294,9 @@
         <v>432</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>483</v>
+        <v>190</v>
       </c>
       <c r="B331" s="3">
         <v>1001034065698</v>
@@ -6302,9 +6305,9 @@
         <v>432</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="B332" s="3">
         <v>1001034065698</v>
@@ -6313,20 +6316,20 @@
         <v>432</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B333" s="3">
+        <v>1001034065698</v>
+      </c>
+      <c r="C333" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="B333" s="3">
-        <v>1001015646861</v>
-      </c>
-      <c r="C333" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" s="2" t="s">
-        <v>463</v>
       </c>
       <c r="B334" s="3">
         <v>1001015646861</v>
@@ -6335,20 +6338,20 @@
         <v>429</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B335" s="3">
+        <v>1001015646861</v>
+      </c>
+      <c r="C335" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="B335" s="3">
-        <v>1001025176768</v>
-      </c>
-      <c r="C335" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="B336" s="3">
         <v>1001025176768</v>
@@ -6359,7 +6362,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="B337" s="3">
         <v>1001025176768</v>
@@ -6370,18 +6373,18 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="B338" s="3">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="C338" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="B339" s="3">
         <v>1001025486770</v>
@@ -6392,7 +6395,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="B340" s="3">
         <v>1001025486770</v>
@@ -6403,18 +6406,18 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>213</v>
+        <v>465</v>
       </c>
       <c r="B341" s="3">
-        <v>1001012816340</v>
+        <v>1001025486770</v>
       </c>
       <c r="C341" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>487</v>
+        <v>213</v>
       </c>
       <c r="B342" s="3">
         <v>1001012816340</v>
@@ -6425,7 +6428,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="B343" s="3">
         <v>1001012816340</v>
@@ -6436,18 +6439,18 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>313</v>
+        <v>466</v>
       </c>
       <c r="B344" s="3">
-        <v>1001203146834</v>
+        <v>1001012816340</v>
       </c>
       <c r="C344" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>460</v>
+        <v>313</v>
       </c>
       <c r="B345" s="3">
         <v>1001203146834</v>
@@ -6458,7 +6461,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="B346" s="3">
         <v>1001203146834</v>
@@ -6469,7 +6472,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="B347" s="3">
         <v>1001203146834</v>
@@ -6480,62 +6483,62 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B348" s="3">
-        <v>1001300456788</v>
+        <v>1001203146834</v>
       </c>
       <c r="C348" t="s">
-        <v>480</v>
+        <v>435</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B349" s="3">
-        <v>1001022556837</v>
+        <v>1001300456788</v>
       </c>
       <c r="C349" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B350" s="3">
-        <v>1001300516786</v>
+        <v>1001022556837</v>
       </c>
       <c r="C350" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B351" s="3">
-        <v>1001214196459</v>
+        <v>1001300516786</v>
       </c>
       <c r="C351" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>548</v>
+        <v>498</v>
       </c>
       <c r="B352" s="3">
-        <v>1001092436495</v>
+        <v>1001214196459</v>
       </c>
       <c r="C352" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B353" s="3">
         <v>1001092436495</v>
@@ -6546,7 +6549,7 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>500</v>
+        <v>555</v>
       </c>
       <c r="B354" s="3">
         <v>1001092436495</v>
@@ -6557,40 +6560,40 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B355" s="3">
-        <v>1001025526901</v>
+        <v>1001092436495</v>
       </c>
       <c r="C355" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B356" s="3">
-        <v>1001025546931</v>
+        <v>1001025526901</v>
       </c>
       <c r="C356" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B357" s="3">
-        <v>1001010016324</v>
+        <v>1001025546931</v>
       </c>
       <c r="C357" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>541</v>
+        <v>514</v>
       </c>
       <c r="B358" s="3">
         <v>1001010016324</v>
@@ -6601,7 +6604,7 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>507</v>
+        <v>541</v>
       </c>
       <c r="B359" s="3">
         <v>1001010016324</v>
@@ -6612,18 +6615,18 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B360" s="3">
-        <v>1001025766909</v>
+        <v>1001010016324</v>
       </c>
       <c r="C360" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>542</v>
+        <v>511</v>
       </c>
       <c r="B361" s="3">
         <v>1001025766909</v>
@@ -6634,7 +6637,7 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>509</v>
+        <v>542</v>
       </c>
       <c r="B362" s="3">
         <v>1001025766909</v>
@@ -6645,18 +6648,18 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>540</v>
+        <v>509</v>
       </c>
       <c r="B363" s="3">
-        <v>1001010014558</v>
+        <v>1001025766909</v>
       </c>
       <c r="C363" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="B364" s="3">
         <v>1001010014558</v>
@@ -6667,18 +6670,18 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="B365" s="3">
-        <v>1001012596802</v>
+        <v>1001010014558</v>
       </c>
       <c r="C365" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B366" s="3">
         <v>1001012596802</v>
@@ -6689,7 +6692,7 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>515</v>
+        <v>544</v>
       </c>
       <c r="B367" s="3">
         <v>1001012596802</v>
@@ -6700,18 +6703,18 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="B368" s="3">
-        <v>1001012596801</v>
+        <v>1001012596802</v>
       </c>
       <c r="C368" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="B369" s="3">
         <v>1001012596801</v>
@@ -6722,7 +6725,7 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>517</v>
+        <v>543</v>
       </c>
       <c r="B370" s="3">
         <v>1001012596801</v>
@@ -6733,62 +6736,62 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B371" s="3">
-        <v>1001062353684</v>
+        <v>1001012596801</v>
       </c>
       <c r="C371" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B372" s="3">
-        <v>1001010014555</v>
+        <v>1001062353684</v>
       </c>
       <c r="C372" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B373" s="3">
-        <v>1001083424691</v>
+        <v>1001010014555</v>
       </c>
       <c r="C373" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B374" s="3">
-        <v>1001190765679</v>
+        <v>1001083424691</v>
       </c>
       <c r="C374" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>672</v>
+        <v>525</v>
       </c>
       <c r="B375" s="3">
-        <v>1001085637187</v>
+        <v>1001190765679</v>
       </c>
       <c r="C375" t="s">
-        <v>671</v>
+        <v>526</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>527</v>
+        <v>672</v>
       </c>
       <c r="B376" s="3">
         <v>1001085637187</v>
@@ -6796,46 +6799,46 @@
       <c r="C376" t="s">
         <v>671</v>
       </c>
-      <c r="E376" t="s">
-        <v>670</v>
-      </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B377" s="3">
-        <v>1001020836253</v>
+        <v>1001085637187</v>
       </c>
       <c r="C377" t="s">
-        <v>529</v>
+        <v>671</v>
+      </c>
+      <c r="E377" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B378" s="3">
-        <v>1001084226492</v>
+        <v>1001020836253</v>
       </c>
       <c r="C378" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>630</v>
+        <v>530</v>
       </c>
       <c r="B379" s="3">
-        <v>1001223297092</v>
+        <v>1001084226492</v>
       </c>
       <c r="C379" t="s">
-        <v>620</v>
+        <v>531</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>533</v>
+        <v>630</v>
       </c>
       <c r="B380" s="3">
         <v>1001223297092</v>
@@ -6843,82 +6846,79 @@
       <c r="C380" t="s">
         <v>620</v>
       </c>
-      <c r="E380" t="s">
-        <v>621</v>
-      </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B381" s="3">
-        <v>1001053944786</v>
+        <v>1001223297092</v>
       </c>
       <c r="C381" t="s">
-        <v>535</v>
+        <v>620</v>
+      </c>
+      <c r="E381" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B382" s="3">
-        <v>1001010016839</v>
+        <v>1001053944786</v>
       </c>
       <c r="C382" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="B383" s="3">
-        <v>1001023857038</v>
+        <v>1001010016839</v>
       </c>
       <c r="C383" t="s">
-        <v>583</v>
+        <v>539</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B384" s="3">
-        <v>1001040434903</v>
+        <v>1001023857038</v>
       </c>
       <c r="C384" t="s">
-        <v>547</v>
+        <v>583</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B385" s="3">
-        <v>1001080216842</v>
+        <v>1001040434903</v>
       </c>
       <c r="C385" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="B386" s="3">
-        <v>1001022467082</v>
+        <v>1001080216842</v>
       </c>
       <c r="C386" t="s">
-        <v>604</v>
-      </c>
-      <c r="E386" t="s">
-        <v>621</v>
+        <v>550</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B387" s="3">
         <v>1001022467082</v>
@@ -6932,7 +6932,7 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>641</v>
+        <v>565</v>
       </c>
       <c r="B388" s="3">
         <v>1001022467082</v>
@@ -6940,10 +6940,13 @@
       <c r="C388" t="s">
         <v>604</v>
       </c>
+      <c r="E388" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>619</v>
+        <v>641</v>
       </c>
       <c r="B389" s="3">
         <v>1001022467082</v>
@@ -6954,7 +6957,7 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="B390" s="3">
         <v>1001022467082</v>
@@ -6965,18 +6968,18 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="B391" s="3">
-        <v>1001035277059</v>
+        <v>1001022467082</v>
       </c>
       <c r="C391" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>569</v>
+        <v>627</v>
       </c>
       <c r="B392" s="3">
         <v>1001035277059</v>
@@ -6984,68 +6987,68 @@
       <c r="C392" t="s">
         <v>622</v>
       </c>
-      <c r="E392" t="s">
-        <v>621</v>
-      </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B393" s="3">
-        <v>1001062353680</v>
+        <v>1001035277059</v>
       </c>
       <c r="C393" t="s">
-        <v>574</v>
+        <v>622</v>
+      </c>
+      <c r="E393" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B394" s="3">
-        <v>1001061971146</v>
+        <v>1001062353680</v>
       </c>
       <c r="C394" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B395" s="3">
-        <v>1001225636201</v>
+        <v>1001061971146</v>
       </c>
       <c r="C395" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B396" s="3">
-        <v>1001020836724</v>
+        <v>1001225636201</v>
       </c>
       <c r="C396" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>682</v>
+        <v>579</v>
       </c>
       <c r="B397" s="3">
-        <v>1001095227235</v>
+        <v>1001020836724</v>
       </c>
       <c r="C397" t="s">
-        <v>674</v>
+        <v>580</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>581</v>
+        <v>682</v>
       </c>
       <c r="B398" s="3">
         <v>1001095227235</v>
@@ -7053,46 +7056,46 @@
       <c r="C398" t="s">
         <v>674</v>
       </c>
-      <c r="E398" t="s">
-        <v>673</v>
-      </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B399" s="3">
-        <v>1001023857038</v>
+        <v>1001095227235</v>
       </c>
       <c r="C399" t="s">
-        <v>583</v>
+        <v>674</v>
+      </c>
+      <c r="E399" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B400" s="3">
-        <v>1001025027040</v>
+        <v>1001023857038</v>
       </c>
       <c r="C400" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B401" s="3">
-        <v>1001223297103</v>
+        <v>1001025027040</v>
       </c>
       <c r="C401" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B402" s="3">
         <v>1001223297103</v>
@@ -7103,7 +7106,7 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>645</v>
+        <v>588</v>
       </c>
       <c r="B403" s="3">
         <v>1001223297103</v>
@@ -7114,7 +7117,7 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>587</v>
+        <v>645</v>
       </c>
       <c r="B404" s="3">
         <v>1001223297103</v>
@@ -7125,18 +7128,18 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>609</v>
+        <v>587</v>
       </c>
       <c r="B405" s="3">
-        <v>1001010032675</v>
+        <v>1001223297103</v>
       </c>
       <c r="C405" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>589</v>
+        <v>609</v>
       </c>
       <c r="B406" s="3">
         <v>1001010032675</v>
@@ -7147,18 +7150,18 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="B407" s="3">
-        <v>1001035937001</v>
+        <v>1001010032675</v>
       </c>
       <c r="C407" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="B408" s="3">
         <v>1001035937001</v>
@@ -7169,7 +7172,7 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>591</v>
+        <v>624</v>
       </c>
       <c r="B409" s="3">
         <v>1001035937001</v>
@@ -7180,21 +7183,18 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>462</v>
+        <v>591</v>
       </c>
       <c r="B410" s="3">
-        <v>1001084217090</v>
+        <v>1001035937001</v>
       </c>
       <c r="C410" t="s">
-        <v>594</v>
-      </c>
-      <c r="E410" t="s">
-        <v>646</v>
+        <v>592</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>664</v>
+        <v>462</v>
       </c>
       <c r="B411" s="3">
         <v>1001084217090</v>
@@ -7202,10 +7202,13 @@
       <c r="C411" t="s">
         <v>594</v>
       </c>
+      <c r="E411" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>615</v>
+        <v>664</v>
       </c>
       <c r="B412" s="3">
         <v>1001084217090</v>
@@ -7216,7 +7219,7 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="B413" s="3">
         <v>1001084217090</v>
@@ -7227,18 +7230,18 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>616</v>
+        <v>593</v>
       </c>
       <c r="B414" s="3">
-        <v>1001022377066</v>
+        <v>1001084217090</v>
       </c>
       <c r="C414" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="B415" s="3">
         <v>1001022377066</v>
@@ -7249,7 +7252,7 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>595</v>
+        <v>628</v>
       </c>
       <c r="B416" s="3">
         <v>1001022377066</v>
@@ -7260,18 +7263,18 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>680</v>
+        <v>595</v>
       </c>
       <c r="B417" s="3">
-        <v>1001010027126</v>
+        <v>1001022377066</v>
       </c>
       <c r="C417" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>610</v>
+        <v>680</v>
       </c>
       <c r="B418" s="3">
         <v>1001010027126</v>
@@ -7282,369 +7285,380 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B419" s="3">
-        <v>1001010027125</v>
+        <v>1001010027126</v>
       </c>
       <c r="C419" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="B420" s="3">
-        <v>1001223297053</v>
+        <v>1001010027125</v>
       </c>
       <c r="C420" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="B421" s="3">
-        <v>1001093316411</v>
+        <v>1001223297053</v>
       </c>
       <c r="C421" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B422" s="3">
-        <v>1001025526962</v>
+        <v>1001093316411</v>
       </c>
       <c r="C422" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B423" s="3">
-        <v>1001025886987</v>
+        <v>1001025526962</v>
       </c>
       <c r="C423" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="B424" s="3">
-        <v>1001204447052</v>
+        <v>1001025886987</v>
       </c>
       <c r="C424" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="B425" s="3">
-        <v>1001084227087</v>
+        <v>1001204447052</v>
       </c>
       <c r="C425" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B426" s="3">
-        <v>1001203207105</v>
+        <v>1001084227087</v>
       </c>
       <c r="C426" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B427" s="3">
-        <v>1001205447106</v>
+        <v>1001203207105</v>
       </c>
       <c r="C427" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B428" s="3">
-        <v>1001205467107</v>
+        <v>1001205447106</v>
       </c>
       <c r="C428" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B429" s="3">
-        <v>1001015676877</v>
+        <v>1001205467107</v>
       </c>
       <c r="C429" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="B430" s="3">
-        <v>1001016366888</v>
+        <v>1001015676877</v>
       </c>
       <c r="C430" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="B431" s="3">
-        <v>1001303107241</v>
+        <v>1001016366888</v>
       </c>
       <c r="C431" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="B432" s="3">
-        <v>1001013957231</v>
+        <v>1001303107241</v>
       </c>
       <c r="C432" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B433" s="3">
-        <v>1001092687245</v>
+        <v>1001013957231</v>
       </c>
       <c r="C433" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B434" s="3">
-        <v>1001063237147</v>
+        <v>1001092687245</v>
       </c>
       <c r="C434" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B435" s="3">
-        <v>1001066537225</v>
+        <v>1001063237147</v>
       </c>
       <c r="C435" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B436" s="3">
-        <v>1001063097227</v>
+        <v>1001066537225</v>
       </c>
       <c r="C436" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B437" s="3">
-        <v>1001066527226</v>
+        <v>1001063097227</v>
       </c>
       <c r="C437" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B438" s="3">
-        <v>1001022557244</v>
+        <v>1001066527226</v>
       </c>
       <c r="C438" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B439" s="3">
-        <v>1001063237229</v>
+        <v>1001022557244</v>
       </c>
       <c r="C439" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B440" s="3">
-        <v>1001026617250</v>
+        <v>1001063237229</v>
       </c>
       <c r="C440" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B441" s="3">
-        <v>1001022467276</v>
+        <v>1001026617250</v>
       </c>
       <c r="C441" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B442" s="3">
-        <v>1001025767284</v>
+        <v>1001022467276</v>
       </c>
       <c r="C442" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B443" s="3">
-        <v>1001063237150</v>
+        <v>1001025767284</v>
       </c>
       <c r="C443" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B444" s="3">
-        <v>1001025507271</v>
+        <v>1001063237150</v>
       </c>
       <c r="C444" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B445" s="3">
-        <v>1001301777332</v>
+        <v>1001025507271</v>
       </c>
       <c r="C445" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B446" s="3">
-        <v>1001300387157</v>
+        <v>1001301777332</v>
       </c>
       <c r="C446" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B447" s="3">
-        <v>1001016747343</v>
+        <v>1001300387157</v>
       </c>
       <c r="C447" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B448" s="3">
-        <v>1001061973986</v>
+        <v>1001016747343</v>
       </c>
       <c r="C448" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B449" s="3">
-        <v>1001303987333</v>
+        <v>1001061973986</v>
       </c>
       <c r="C449" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B450" s="3">
-        <v>1001065616832</v>
+        <v>1001303987333</v>
       </c>
       <c r="C450" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B451" s="3">
+        <v>1001065616832</v>
+      </c>
+      <c r="C451" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="B451" s="3">
+      <c r="B452" s="3">
         <v>1001060677299</v>
       </c>
-      <c r="C451" t="s">
+      <c r="C452" t="s">
         <v>724</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C451" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C452" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF23E0EC-0222-4ADB-ABF1-6ED09A578BF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED882B8-5FD1-4D2A-98C1-8B1656D883F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="730">
   <si>
     <t>1С</t>
   </si>
@@ -2218,6 +2218,12 @@
   </si>
   <si>
     <t>7382 САЛЯМИ МЕЛКОЗЕРНЕНАЯ с/к в/у 1/120 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МЯСНЫЕ С ГОВЯД.ПМ сос п/о мгс 0.4кг 6шт.</t>
+  </si>
+  <si>
+    <t>ротация 08,12,25</t>
   </si>
 </sst>
 </file>
@@ -2575,7 +2581,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5192,10 +5198,13 @@
         <v>639</v>
       </c>
       <c r="B232" s="3">
-        <v>1001025507077</v>
+        <v>1001025507255</v>
       </c>
       <c r="C232" t="s">
-        <v>600</v>
+        <v>728</v>
+      </c>
+      <c r="E232" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -5203,10 +5212,13 @@
         <v>618</v>
       </c>
       <c r="B233" s="3">
-        <v>1001025507077</v>
+        <v>1001025507255</v>
       </c>
       <c r="C233" t="s">
-        <v>600</v>
+        <v>728</v>
+      </c>
+      <c r="E233" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -5214,10 +5226,13 @@
         <v>599</v>
       </c>
       <c r="B234" s="3">
-        <v>1001025507077</v>
+        <v>1001025507255</v>
       </c>
       <c r="C234" t="s">
-        <v>600</v>
+        <v>728</v>
+      </c>
+      <c r="E234" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">

--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED882B8-5FD1-4D2A-98C1-8B1656D883F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7610AFC5-BF39-4150-A3F5-C6E2A63030AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="732">
   <si>
     <t>1С</t>
   </si>
@@ -2224,6 +2224,12 @@
   </si>
   <si>
     <t>ротация 08,12,25</t>
+  </si>
+  <si>
+    <t>7317 ПРЕСИЖН с/к дек.спец. мгс 0,54кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ПРЕСИЖН с/к дек.спец. мгс 0.54кг</t>
   </si>
 </sst>
 </file>
@@ -2577,11 +2583,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F452"/>
+  <dimension ref="A1:F453"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7672,6 +7678,17 @@
         <v>724</v>
       </c>
     </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B453" s="3">
+        <v>1001066567317</v>
+      </c>
+      <c r="C453" t="s">
+        <v>731</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C452" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7610AFC5-BF39-4150-A3F5-C6E2A63030AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482B40BA-67E2-412D-B68D-1D2811D329B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$452</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$455</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="735">
   <si>
     <t>1С</t>
   </si>
@@ -2230,6 +2230,15 @@
   </si>
   <si>
     <t>ПРЕСИЖН с/к дек.спец. мгс 0.54кг</t>
+  </si>
+  <si>
+    <t>7377 ВЕТЧ.С ИНДЕЙКОЙ ПМ в/у срез 0,3кг 6шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.С ИНДЕЙКОЙ ПМ в/у срез 0.3кг 6шт.</t>
+  </si>
+  <si>
+    <t>7255 МЯСНЫЕ С ГОВЯД. ПМ сос п/о мгс 0,4кг 6шт.  ОСТАНКИНО</t>
   </si>
 </sst>
 </file>
@@ -2583,11 +2592,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F453"/>
+  <dimension ref="A1:F455"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5243,18 +5252,18 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>326</v>
+        <v>734</v>
       </c>
       <c r="B235" s="3">
-        <v>1001025546822</v>
+        <v>1001025507255</v>
       </c>
       <c r="C235" t="s">
-        <v>306</v>
+        <v>728</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B236" s="3">
         <v>1001025546822</v>
@@ -5265,62 +5274,62 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B237" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C237" t="s">
-        <v>551</v>
+        <v>306</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="B238" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C238" t="s">
-        <v>306</v>
+        <v>551</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B239" s="3">
-        <v>1001024976616</v>
+        <v>1001025546822</v>
       </c>
       <c r="C239" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B240" s="3">
-        <v>1001010855247</v>
+        <v>1001024976616</v>
       </c>
       <c r="C240" t="s">
-        <v>23</v>
+        <v>309</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>388</v>
+        <v>311</v>
       </c>
       <c r="B241" s="3">
-        <v>1001223296919</v>
+        <v>1001010855247</v>
       </c>
       <c r="C241" t="s">
-        <v>391</v>
+        <v>23</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>68</v>
+        <v>388</v>
       </c>
       <c r="B242" s="3">
         <v>1001223296919</v>
@@ -5331,7 +5340,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>229</v>
+        <v>68</v>
       </c>
       <c r="B243" s="3">
         <v>1001223296919</v>
@@ -5342,29 +5351,29 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>459</v>
+        <v>229</v>
       </c>
       <c r="B244" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C244" t="s">
-        <v>475</v>
+        <v>391</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="B245" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C245" t="s">
-        <v>391</v>
+        <v>475</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>312</v>
+        <v>481</v>
       </c>
       <c r="B246" s="3">
         <v>1001223296919</v>
@@ -5375,62 +5384,62 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B247" s="3">
-        <v>1001014765993</v>
+        <v>1001223296919</v>
       </c>
       <c r="C247" t="s">
-        <v>300</v>
+        <v>391</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B248" s="3">
-        <v>1001025166776</v>
+        <v>1001014765993</v>
       </c>
       <c r="C248" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B249" s="3">
-        <v>1001025526778</v>
+        <v>1001025166776</v>
       </c>
       <c r="C249" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B250" s="3">
-        <v>1001304236685</v>
+        <v>1001025526778</v>
       </c>
       <c r="C250" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="B251" s="3">
-        <v>1001015496769</v>
+        <v>1001304236685</v>
       </c>
       <c r="C251" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="B252" s="3">
         <v>1001015496769</v>
@@ -5441,84 +5450,84 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B253" s="3">
-        <v>1001014766798</v>
+        <v>1001015496769</v>
       </c>
       <c r="C253" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B254" s="3">
-        <v>1001015026797</v>
+        <v>1001014766798</v>
       </c>
       <c r="C254" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B255" s="3">
-        <v>1001205386222</v>
+        <v>1001015026797</v>
       </c>
       <c r="C255" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B256" s="3">
-        <v>1001092675224</v>
+        <v>1001205386222</v>
       </c>
       <c r="C256" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B257" s="3">
-        <v>1001225406223</v>
+        <v>1001092675224</v>
       </c>
       <c r="C257" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B258" s="3">
-        <v>1001300366790</v>
+        <v>1001225406223</v>
       </c>
       <c r="C258" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>477</v>
+        <v>351</v>
       </c>
       <c r="B259" s="3">
-        <v>1001304096792</v>
+        <v>1001300366790</v>
       </c>
       <c r="C259" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>353</v>
+        <v>477</v>
       </c>
       <c r="B260" s="3">
         <v>1001304096792</v>
@@ -5529,29 +5538,29 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B261" s="3">
-        <v>1001303636793</v>
+        <v>1001304096792</v>
       </c>
       <c r="C261" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>681</v>
+        <v>354</v>
       </c>
       <c r="B262" s="3">
-        <v>1001303637131</v>
+        <v>1001303636793</v>
       </c>
       <c r="C262" t="s">
-        <v>669</v>
+        <v>365</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>399</v>
+        <v>681</v>
       </c>
       <c r="B263" s="3">
         <v>1001303637131</v>
@@ -5559,13 +5568,10 @@
       <c r="C263" t="s">
         <v>669</v>
       </c>
-      <c r="E263" t="s">
-        <v>670</v>
-      </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>497</v>
+        <v>399</v>
       </c>
       <c r="B264" s="3">
         <v>1001303637131</v>
@@ -5579,7 +5585,7 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>355</v>
+        <v>497</v>
       </c>
       <c r="B265" s="3">
         <v>1001303637131</v>
@@ -5593,51 +5599,54 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B266" s="3">
-        <v>1001302596795</v>
+        <v>1001303637131</v>
       </c>
       <c r="C266" t="s">
-        <v>366</v>
+        <v>669</v>
+      </c>
+      <c r="E266" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B267" s="3">
-        <v>1001302596796</v>
+        <v>1001302596795</v>
       </c>
       <c r="C267" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B268" s="3">
-        <v>1001300456804</v>
+        <v>1001302596796</v>
       </c>
       <c r="C268" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>446</v>
+        <v>358</v>
       </c>
       <c r="B269" s="3">
-        <v>1001300366806</v>
+        <v>1001300456804</v>
       </c>
       <c r="C269" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>359</v>
+        <v>446</v>
       </c>
       <c r="B270" s="3">
         <v>1001300366806</v>
@@ -5648,62 +5657,62 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B271" s="3">
-        <v>1001300516803</v>
+        <v>1001300366806</v>
       </c>
       <c r="C271" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B272" s="3">
-        <v>1001300366807</v>
+        <v>1001300516803</v>
       </c>
       <c r="C272" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="B273" s="3">
         <v>1001300366807</v>
       </c>
       <c r="C273" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B274" s="3">
-        <v>1001300516785</v>
+        <v>1001300366807</v>
       </c>
       <c r="C274" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>537</v>
+        <v>374</v>
       </c>
       <c r="B275" s="3">
-        <v>1001300456787</v>
+        <v>1001300516785</v>
       </c>
       <c r="C275" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="B276" s="3">
         <v>1001300456787</v>
@@ -5714,7 +5723,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>376</v>
+        <v>552</v>
       </c>
       <c r="B277" s="3">
         <v>1001300456787</v>
@@ -5725,73 +5734,73 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B278" s="3">
-        <v>1001303636793</v>
+        <v>1001300456787</v>
       </c>
       <c r="C278" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B279" s="3">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="C279" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B280" s="3">
-        <v>1001012486332</v>
+        <v>1001302596795</v>
       </c>
       <c r="C280" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B281" s="3">
-        <v>1001012566345</v>
+        <v>1001012486332</v>
       </c>
       <c r="C281" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B282" s="3">
-        <v>1001031076528</v>
+        <v>1001012566345</v>
       </c>
       <c r="C282" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="B283" s="3">
-        <v>1001020836761</v>
+        <v>1001031076528</v>
       </c>
       <c r="C283" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B284" s="3">
         <v>1001020836761</v>
@@ -5802,7 +5811,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>392</v>
+        <v>421</v>
       </c>
       <c r="B285" s="3">
         <v>1001020836761</v>
@@ -5813,18 +5822,18 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="B286" s="3">
-        <v>1001020846764</v>
+        <v>1001020836761</v>
       </c>
       <c r="C286" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B287" s="3">
         <v>1001020846764</v>
@@ -5835,7 +5844,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>394</v>
+        <v>422</v>
       </c>
       <c r="B288" s="3">
         <v>1001020846764</v>
@@ -5846,18 +5855,18 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>493</v>
+        <v>394</v>
       </c>
       <c r="B289" s="3">
-        <v>1001300366790</v>
+        <v>1001020846764</v>
       </c>
       <c r="C289" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>396</v>
+        <v>493</v>
       </c>
       <c r="B290" s="3">
         <v>1001300366790</v>
@@ -5868,18 +5877,18 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="B291" s="3">
-        <v>1001304096791</v>
+        <v>1001300366790</v>
       </c>
       <c r="C291" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>468</v>
+        <v>352</v>
       </c>
       <c r="B292" s="3">
         <v>1001304096791</v>
@@ -5890,7 +5899,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>397</v>
+        <v>468</v>
       </c>
       <c r="B293" s="3">
         <v>1001304096791</v>
@@ -5901,84 +5910,84 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B294" s="3">
-        <v>1001303636793</v>
+        <v>1001304096791</v>
       </c>
       <c r="C294" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B295" s="3">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="C295" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B296" s="3">
-        <v>1001300516803</v>
+        <v>1001302596795</v>
       </c>
       <c r="C296" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B297" s="3">
-        <v>1001300456804</v>
+        <v>1001300516803</v>
       </c>
       <c r="C297" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B298" s="3">
-        <v>1001300366807</v>
+        <v>1001300456804</v>
       </c>
       <c r="C298" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B299" s="3">
-        <v>1001302596796</v>
+        <v>1001300366807</v>
       </c>
       <c r="C299" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>452</v>
+        <v>404</v>
       </c>
       <c r="B300" s="3">
-        <v>1001023696765</v>
+        <v>1001302596796</v>
       </c>
       <c r="C300" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="B301" s="3">
         <v>1001023696765</v>
@@ -5989,7 +5998,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>406</v>
+        <v>471</v>
       </c>
       <c r="B302" s="3">
         <v>1001023696765</v>
@@ -6000,18 +6009,18 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="B303" s="3">
-        <v>1001023696767</v>
+        <v>1001023696765</v>
       </c>
       <c r="C303" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B304" s="3">
         <v>1001023696767</v>
@@ -6022,7 +6031,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="B305" s="3">
         <v>1001023696767</v>
@@ -6033,18 +6042,18 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B306" s="3">
-        <v>1001024976829</v>
+        <v>1001023696767</v>
       </c>
       <c r="C306" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B307" s="3">
         <v>1001024976829</v>
@@ -6055,29 +6064,29 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="B308" s="3">
-        <v>1001022376722</v>
+        <v>1001024976829</v>
       </c>
       <c r="C308" t="s">
-        <v>124</v>
+        <v>405</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="B309" s="3">
-        <v>1001020846762</v>
+        <v>1001022376722</v>
       </c>
       <c r="C309" t="s">
-        <v>428</v>
+        <v>124</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="B310" s="3">
         <v>1001020846762</v>
@@ -6088,7 +6097,7 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>427</v>
+        <v>470</v>
       </c>
       <c r="B311" s="3">
         <v>1001020846762</v>
@@ -6099,18 +6108,18 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>129</v>
+        <v>427</v>
       </c>
       <c r="B312" s="3">
-        <v>1001022656853</v>
+        <v>1001020846762</v>
       </c>
       <c r="C312" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>492</v>
+        <v>129</v>
       </c>
       <c r="B313" s="3">
         <v>1001022656853</v>
@@ -6121,21 +6130,18 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>571</v>
+        <v>492</v>
       </c>
       <c r="B314" s="3">
-        <v>1001022657075</v>
+        <v>1001022656853</v>
       </c>
       <c r="C314" t="s">
-        <v>602</v>
-      </c>
-      <c r="E314" t="s">
-        <v>621</v>
+        <v>431</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B315" s="3">
         <v>1001022657075</v>
@@ -6149,7 +6155,7 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>638</v>
+        <v>566</v>
       </c>
       <c r="B316" s="3">
         <v>1001022657075</v>
@@ -6157,10 +6163,13 @@
       <c r="C316" t="s">
         <v>602</v>
       </c>
+      <c r="E316" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>601</v>
+        <v>638</v>
       </c>
       <c r="B317" s="3">
         <v>1001022657075</v>
@@ -6171,29 +6180,29 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>430</v>
+        <v>601</v>
       </c>
       <c r="B318" s="3">
-        <v>1001022656948</v>
+        <v>1001022657075</v>
       </c>
       <c r="C318" t="s">
-        <v>563</v>
+        <v>602</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>607</v>
+        <v>430</v>
       </c>
       <c r="B319" s="3">
-        <v>1001022657073</v>
+        <v>1001022656948</v>
       </c>
       <c r="C319" t="s">
-        <v>608</v>
+        <v>563</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>629</v>
+        <v>607</v>
       </c>
       <c r="B320" s="3">
         <v>1001022657073</v>
@@ -6204,7 +6213,7 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>436</v>
+        <v>629</v>
       </c>
       <c r="B321" s="3">
         <v>1001022657073</v>
@@ -6212,24 +6221,24 @@
       <c r="C321" t="s">
         <v>608</v>
       </c>
-      <c r="E321" t="s">
-        <v>621</v>
-      </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="B322" s="3">
-        <v>1001020836759</v>
+        <v>1001022657073</v>
       </c>
       <c r="C322" t="s">
-        <v>438</v>
+        <v>608</v>
+      </c>
+      <c r="E322" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="B323" s="3">
         <v>1001020836759</v>
@@ -6240,7 +6249,7 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>437</v>
+        <v>469</v>
       </c>
       <c r="B324" s="3">
         <v>1001020836759</v>
@@ -6251,51 +6260,51 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B325" s="3">
-        <v>1001023856870</v>
+        <v>1001020836759</v>
       </c>
       <c r="C325" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="B326" s="3">
-        <v>1001013956426</v>
+        <v>1001023856870</v>
       </c>
       <c r="C326" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B327" s="3">
-        <v>1001093345495</v>
+        <v>1001013956426</v>
       </c>
       <c r="C327" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>485</v>
+        <v>456</v>
       </c>
       <c r="B328" s="3">
-        <v>1001022656868</v>
+        <v>1001093345495</v>
       </c>
       <c r="C328" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>457</v>
+        <v>485</v>
       </c>
       <c r="B329" s="3">
         <v>1001022656868</v>
@@ -6306,18 +6315,18 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>171</v>
+        <v>457</v>
       </c>
       <c r="B330" s="3">
-        <v>1001034065698</v>
+        <v>1001022656868</v>
       </c>
       <c r="C330" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="B331" s="3">
         <v>1001034065698</v>
@@ -6328,7 +6337,7 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>483</v>
+        <v>190</v>
       </c>
       <c r="B332" s="3">
         <v>1001034065698</v>
@@ -6339,7 +6348,7 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="B333" s="3">
         <v>1001034065698</v>
@@ -6350,18 +6359,18 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="B334" s="3">
-        <v>1001015646861</v>
+        <v>1001034065698</v>
       </c>
       <c r="C334" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="B335" s="3">
         <v>1001015646861</v>
@@ -6372,18 +6381,18 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="B336" s="3">
-        <v>1001025176768</v>
+        <v>1001015646861</v>
       </c>
       <c r="C336" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>472</v>
+        <v>449</v>
       </c>
       <c r="B337" s="3">
         <v>1001025176768</v>
@@ -6394,7 +6403,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="B338" s="3">
         <v>1001025176768</v>
@@ -6405,18 +6414,18 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="B339" s="3">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="C339" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="B340" s="3">
         <v>1001025486770</v>
@@ -6427,7 +6436,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="B341" s="3">
         <v>1001025486770</v>
@@ -6438,18 +6447,18 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>213</v>
+        <v>465</v>
       </c>
       <c r="B342" s="3">
-        <v>1001012816340</v>
+        <v>1001025486770</v>
       </c>
       <c r="C342" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>487</v>
+        <v>213</v>
       </c>
       <c r="B343" s="3">
         <v>1001012816340</v>
@@ -6460,7 +6469,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="B344" s="3">
         <v>1001012816340</v>
@@ -6471,18 +6480,18 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>313</v>
+        <v>466</v>
       </c>
       <c r="B345" s="3">
-        <v>1001203146834</v>
+        <v>1001012816340</v>
       </c>
       <c r="C345" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>460</v>
+        <v>313</v>
       </c>
       <c r="B346" s="3">
         <v>1001203146834</v>
@@ -6493,7 +6502,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="B347" s="3">
         <v>1001203146834</v>
@@ -6504,7 +6513,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="B348" s="3">
         <v>1001203146834</v>
@@ -6515,62 +6524,62 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B349" s="3">
-        <v>1001300456788</v>
+        <v>1001203146834</v>
       </c>
       <c r="C349" t="s">
-        <v>480</v>
+        <v>435</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B350" s="3">
-        <v>1001022556837</v>
+        <v>1001300456788</v>
       </c>
       <c r="C350" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B351" s="3">
-        <v>1001300516786</v>
+        <v>1001022556837</v>
       </c>
       <c r="C351" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B352" s="3">
-        <v>1001214196459</v>
+        <v>1001300516786</v>
       </c>
       <c r="C352" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>548</v>
+        <v>498</v>
       </c>
       <c r="B353" s="3">
-        <v>1001092436495</v>
+        <v>1001214196459</v>
       </c>
       <c r="C353" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B354" s="3">
         <v>1001092436495</v>
@@ -6581,7 +6590,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>500</v>
+        <v>555</v>
       </c>
       <c r="B355" s="3">
         <v>1001092436495</v>
@@ -6592,40 +6601,40 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B356" s="3">
-        <v>1001025526901</v>
+        <v>1001092436495</v>
       </c>
       <c r="C356" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B357" s="3">
-        <v>1001025546931</v>
+        <v>1001025526901</v>
       </c>
       <c r="C357" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B358" s="3">
-        <v>1001010016324</v>
+        <v>1001025546931</v>
       </c>
       <c r="C358" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>541</v>
+        <v>514</v>
       </c>
       <c r="B359" s="3">
         <v>1001010016324</v>
@@ -6636,7 +6645,7 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>507</v>
+        <v>541</v>
       </c>
       <c r="B360" s="3">
         <v>1001010016324</v>
@@ -6647,18 +6656,18 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B361" s="3">
-        <v>1001025766909</v>
+        <v>1001010016324</v>
       </c>
       <c r="C361" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>542</v>
+        <v>511</v>
       </c>
       <c r="B362" s="3">
         <v>1001025766909</v>
@@ -6669,7 +6678,7 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>509</v>
+        <v>542</v>
       </c>
       <c r="B363" s="3">
         <v>1001025766909</v>
@@ -6680,18 +6689,18 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>540</v>
+        <v>509</v>
       </c>
       <c r="B364" s="3">
-        <v>1001010014558</v>
+        <v>1001025766909</v>
       </c>
       <c r="C364" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="B365" s="3">
         <v>1001010014558</v>
@@ -6702,18 +6711,18 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="B366" s="3">
-        <v>1001012596802</v>
+        <v>1001010014558</v>
       </c>
       <c r="C366" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B367" s="3">
         <v>1001012596802</v>
@@ -6724,7 +6733,7 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>515</v>
+        <v>544</v>
       </c>
       <c r="B368" s="3">
         <v>1001012596802</v>
@@ -6735,18 +6744,18 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="B369" s="3">
-        <v>1001012596801</v>
+        <v>1001012596802</v>
       </c>
       <c r="C369" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="B370" s="3">
         <v>1001012596801</v>
@@ -6757,7 +6766,7 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>517</v>
+        <v>543</v>
       </c>
       <c r="B371" s="3">
         <v>1001012596801</v>
@@ -6768,62 +6777,62 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B372" s="3">
-        <v>1001062353684</v>
+        <v>1001012596801</v>
       </c>
       <c r="C372" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B373" s="3">
-        <v>1001010014555</v>
+        <v>1001062353684</v>
       </c>
       <c r="C373" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B374" s="3">
-        <v>1001083424691</v>
+        <v>1001010014555</v>
       </c>
       <c r="C374" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B375" s="3">
-        <v>1001190765679</v>
+        <v>1001083424691</v>
       </c>
       <c r="C375" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>672</v>
+        <v>525</v>
       </c>
       <c r="B376" s="3">
-        <v>1001085637187</v>
+        <v>1001190765679</v>
       </c>
       <c r="C376" t="s">
-        <v>671</v>
+        <v>526</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>527</v>
+        <v>672</v>
       </c>
       <c r="B377" s="3">
         <v>1001085637187</v>
@@ -6831,46 +6840,46 @@
       <c r="C377" t="s">
         <v>671</v>
       </c>
-      <c r="E377" t="s">
-        <v>670</v>
-      </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B378" s="3">
-        <v>1001020836253</v>
+        <v>1001085637187</v>
       </c>
       <c r="C378" t="s">
-        <v>529</v>
+        <v>671</v>
+      </c>
+      <c r="E378" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B379" s="3">
-        <v>1001084226492</v>
+        <v>1001020836253</v>
       </c>
       <c r="C379" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>630</v>
+        <v>530</v>
       </c>
       <c r="B380" s="3">
-        <v>1001223297092</v>
+        <v>1001084226492</v>
       </c>
       <c r="C380" t="s">
-        <v>620</v>
+        <v>531</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>533</v>
+        <v>630</v>
       </c>
       <c r="B381" s="3">
         <v>1001223297092</v>
@@ -6878,82 +6887,79 @@
       <c r="C381" t="s">
         <v>620</v>
       </c>
-      <c r="E381" t="s">
-        <v>621</v>
-      </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B382" s="3">
-        <v>1001053944786</v>
+        <v>1001223297092</v>
       </c>
       <c r="C382" t="s">
-        <v>535</v>
+        <v>620</v>
+      </c>
+      <c r="E382" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B383" s="3">
-        <v>1001010016839</v>
+        <v>1001053944786</v>
       </c>
       <c r="C383" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="B384" s="3">
-        <v>1001023857038</v>
+        <v>1001010016839</v>
       </c>
       <c r="C384" t="s">
-        <v>583</v>
+        <v>539</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B385" s="3">
-        <v>1001040434903</v>
+        <v>1001023857038</v>
       </c>
       <c r="C385" t="s">
-        <v>547</v>
+        <v>583</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B386" s="3">
-        <v>1001080216842</v>
+        <v>1001040434903</v>
       </c>
       <c r="C386" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="B387" s="3">
-        <v>1001022467082</v>
+        <v>1001080216842</v>
       </c>
       <c r="C387" t="s">
-        <v>604</v>
-      </c>
-      <c r="E387" t="s">
-        <v>621</v>
+        <v>550</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B388" s="3">
         <v>1001022467082</v>
@@ -6967,7 +6973,7 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>641</v>
+        <v>565</v>
       </c>
       <c r="B389" s="3">
         <v>1001022467082</v>
@@ -6975,10 +6981,13 @@
       <c r="C389" t="s">
         <v>604</v>
       </c>
+      <c r="E389" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>619</v>
+        <v>641</v>
       </c>
       <c r="B390" s="3">
         <v>1001022467082</v>
@@ -6989,7 +6998,7 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="B391" s="3">
         <v>1001022467082</v>
@@ -7000,18 +7009,18 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="B392" s="3">
-        <v>1001035277059</v>
+        <v>1001022467082</v>
       </c>
       <c r="C392" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>569</v>
+        <v>627</v>
       </c>
       <c r="B393" s="3">
         <v>1001035277059</v>
@@ -7019,68 +7028,68 @@
       <c r="C393" t="s">
         <v>622</v>
       </c>
-      <c r="E393" t="s">
-        <v>621</v>
-      </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B394" s="3">
-        <v>1001062353680</v>
+        <v>1001035277059</v>
       </c>
       <c r="C394" t="s">
-        <v>574</v>
+        <v>622</v>
+      </c>
+      <c r="E394" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B395" s="3">
-        <v>1001061971146</v>
+        <v>1001062353680</v>
       </c>
       <c r="C395" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B396" s="3">
-        <v>1001225636201</v>
+        <v>1001061971146</v>
       </c>
       <c r="C396" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B397" s="3">
-        <v>1001020836724</v>
+        <v>1001225636201</v>
       </c>
       <c r="C397" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>682</v>
+        <v>579</v>
       </c>
       <c r="B398" s="3">
-        <v>1001095227235</v>
+        <v>1001020836724</v>
       </c>
       <c r="C398" t="s">
-        <v>674</v>
+        <v>580</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>581</v>
+        <v>682</v>
       </c>
       <c r="B399" s="3">
         <v>1001095227235</v>
@@ -7088,46 +7097,46 @@
       <c r="C399" t="s">
         <v>674</v>
       </c>
-      <c r="E399" t="s">
-        <v>673</v>
-      </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B400" s="3">
-        <v>1001023857038</v>
+        <v>1001095227235</v>
       </c>
       <c r="C400" t="s">
-        <v>583</v>
+        <v>674</v>
+      </c>
+      <c r="E400" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B401" s="3">
-        <v>1001025027040</v>
+        <v>1001023857038</v>
       </c>
       <c r="C401" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B402" s="3">
-        <v>1001223297103</v>
+        <v>1001025027040</v>
       </c>
       <c r="C402" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B403" s="3">
         <v>1001223297103</v>
@@ -7138,7 +7147,7 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>645</v>
+        <v>588</v>
       </c>
       <c r="B404" s="3">
         <v>1001223297103</v>
@@ -7149,7 +7158,7 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>587</v>
+        <v>645</v>
       </c>
       <c r="B405" s="3">
         <v>1001223297103</v>
@@ -7160,18 +7169,18 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>609</v>
+        <v>587</v>
       </c>
       <c r="B406" s="3">
-        <v>1001010032675</v>
+        <v>1001223297103</v>
       </c>
       <c r="C406" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>589</v>
+        <v>609</v>
       </c>
       <c r="B407" s="3">
         <v>1001010032675</v>
@@ -7182,18 +7191,18 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="B408" s="3">
-        <v>1001035937001</v>
+        <v>1001010032675</v>
       </c>
       <c r="C408" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="B409" s="3">
         <v>1001035937001</v>
@@ -7204,7 +7213,7 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>591</v>
+        <v>624</v>
       </c>
       <c r="B410" s="3">
         <v>1001035937001</v>
@@ -7215,21 +7224,18 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>462</v>
+        <v>591</v>
       </c>
       <c r="B411" s="3">
-        <v>1001084217090</v>
+        <v>1001035937001</v>
       </c>
       <c r="C411" t="s">
-        <v>594</v>
-      </c>
-      <c r="E411" t="s">
-        <v>646</v>
+        <v>592</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>664</v>
+        <v>462</v>
       </c>
       <c r="B412" s="3">
         <v>1001084217090</v>
@@ -7237,10 +7243,13 @@
       <c r="C412" t="s">
         <v>594</v>
       </c>
+      <c r="E412" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>615</v>
+        <v>664</v>
       </c>
       <c r="B413" s="3">
         <v>1001084217090</v>
@@ -7251,7 +7260,7 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="B414" s="3">
         <v>1001084217090</v>
@@ -7262,18 +7271,18 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>616</v>
+        <v>593</v>
       </c>
       <c r="B415" s="3">
-        <v>1001022377066</v>
+        <v>1001084217090</v>
       </c>
       <c r="C415" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="B416" s="3">
         <v>1001022377066</v>
@@ -7284,7 +7293,7 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>595</v>
+        <v>628</v>
       </c>
       <c r="B417" s="3">
         <v>1001022377066</v>
@@ -7295,18 +7304,18 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>680</v>
+        <v>595</v>
       </c>
       <c r="B418" s="3">
-        <v>1001010027126</v>
+        <v>1001022377066</v>
       </c>
       <c r="C418" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>610</v>
+        <v>680</v>
       </c>
       <c r="B419" s="3">
         <v>1001010027126</v>
@@ -7317,380 +7326,402 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B420" s="3">
-        <v>1001010027125</v>
+        <v>1001010027126</v>
       </c>
       <c r="C420" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="B421" s="3">
-        <v>1001223297053</v>
+        <v>1001010027125</v>
       </c>
       <c r="C421" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="B422" s="3">
-        <v>1001093316411</v>
+        <v>1001223297053</v>
       </c>
       <c r="C422" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B423" s="3">
-        <v>1001025526962</v>
+        <v>1001093316411</v>
       </c>
       <c r="C423" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B424" s="3">
-        <v>1001025886987</v>
+        <v>1001025526962</v>
       </c>
       <c r="C424" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="B425" s="3">
-        <v>1001204447052</v>
+        <v>1001025886987</v>
       </c>
       <c r="C425" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="B426" s="3">
-        <v>1001084227087</v>
+        <v>1001204447052</v>
       </c>
       <c r="C426" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B427" s="3">
-        <v>1001203207105</v>
+        <v>1001084227087</v>
       </c>
       <c r="C427" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B428" s="3">
-        <v>1001205447106</v>
+        <v>1001203207105</v>
       </c>
       <c r="C428" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B429" s="3">
-        <v>1001205467107</v>
+        <v>1001205447106</v>
       </c>
       <c r="C429" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B430" s="3">
-        <v>1001015676877</v>
+        <v>1001205467107</v>
       </c>
       <c r="C430" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="B431" s="3">
-        <v>1001016366888</v>
+        <v>1001015676877</v>
       </c>
       <c r="C431" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="B432" s="3">
-        <v>1001303107241</v>
+        <v>1001016366888</v>
       </c>
       <c r="C432" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="B433" s="3">
-        <v>1001013957231</v>
+        <v>1001303107241</v>
       </c>
       <c r="C433" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B434" s="3">
-        <v>1001092687245</v>
+        <v>1001013957231</v>
       </c>
       <c r="C434" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B435" s="3">
-        <v>1001063237147</v>
+        <v>1001092687245</v>
       </c>
       <c r="C435" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B436" s="3">
-        <v>1001066537225</v>
+        <v>1001063237147</v>
       </c>
       <c r="C436" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B437" s="3">
-        <v>1001063097227</v>
+        <v>1001066537225</v>
       </c>
       <c r="C437" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B438" s="3">
-        <v>1001066527226</v>
+        <v>1001063097227</v>
       </c>
       <c r="C438" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B439" s="3">
-        <v>1001022557244</v>
+        <v>1001066527226</v>
       </c>
       <c r="C439" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B440" s="3">
-        <v>1001063237229</v>
+        <v>1001022557244</v>
       </c>
       <c r="C440" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B441" s="3">
-        <v>1001026617250</v>
+        <v>1001063237229</v>
       </c>
       <c r="C441" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B442" s="3">
-        <v>1001022467276</v>
+        <v>1001026617250</v>
       </c>
       <c r="C442" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B443" s="3">
-        <v>1001025767284</v>
+        <v>1001022467276</v>
       </c>
       <c r="C443" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B444" s="3">
-        <v>1001063237150</v>
+        <v>1001025767284</v>
       </c>
       <c r="C444" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B445" s="3">
-        <v>1001025507271</v>
+        <v>1001063237150</v>
       </c>
       <c r="C445" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B446" s="3">
-        <v>1001301777332</v>
+        <v>1001025507271</v>
       </c>
       <c r="C446" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B447" s="3">
-        <v>1001300387157</v>
+        <v>1001301777332</v>
       </c>
       <c r="C447" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B448" s="3">
-        <v>1001016747343</v>
+        <v>1001300387157</v>
       </c>
       <c r="C448" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B449" s="3">
-        <v>1001061973986</v>
+        <v>1001016747343</v>
       </c>
       <c r="C449" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B450" s="3">
-        <v>1001303987333</v>
+        <v>1001061973986</v>
       </c>
       <c r="C450" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B451" s="3">
-        <v>1001065616832</v>
+        <v>1001303987333</v>
       </c>
       <c r="C451" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B452" s="3">
-        <v>1001060677299</v>
+        <v>1001065616832</v>
       </c>
       <c r="C452" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B453" s="3">
+        <v>1001060677299</v>
+      </c>
+      <c r="C453" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="B453" s="3">
+      <c r="B454" s="3">
         <v>1001066567317</v>
       </c>
-      <c r="C453" t="s">
+      <c r="C454" t="s">
         <v>731</v>
       </c>
     </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B455" s="3">
+        <v>1001095027377</v>
+      </c>
+      <c r="C455" t="s">
+        <v>733</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C452" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C455" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482B40BA-67E2-412D-B68D-1D2811D329B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671A2E5D-3219-466D-80D4-31F6250A55D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="739">
   <si>
     <t>1С</t>
   </si>
@@ -2239,6 +2239,18 @@
   </si>
   <si>
     <t>7255 МЯСНЫЕ С ГОВЯД. ПМ сос п/о мгс 0,4кг 6шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>7364 ЧОРИЗО Останкино с/к в/у 1/220 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ЧОРИЗО Останкино с/к в/у 1/220 8шт.</t>
+  </si>
+  <si>
+    <t>7383 САН-РЕМО Останкино с/в в/у 1/220 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>САН-РЕМО Останкино с/в в/у 1/220 8шт.</t>
   </si>
 </sst>
 </file>
@@ -2592,11 +2604,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F455"/>
+  <dimension ref="A1:F457"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7720,6 +7732,28 @@
         <v>733</v>
       </c>
     </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B456" s="3">
+        <v>1001063217364</v>
+      </c>
+      <c r="C456" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B457" s="3">
+        <v>1001065467383</v>
+      </c>
+      <c r="C457" t="s">
+        <v>738</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C455" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
